--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_1_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_1_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3592304.443838547</v>
+        <v>3593258.180582786</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1183418.911521204</v>
+        <v>1183418.911521203</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>383260.7088960306</v>
+        <v>383260.7088960294</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8087870.522232674</v>
+        <v>8087870.522232675</v>
       </c>
     </row>
     <row r="11">
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>88.93311775391584</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -709,16 +709,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>68.21015448122992</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -740,10 +740,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>154.9607192316007</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>117.8162772781929</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>168.1666138174382</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
-        <v>105.6245995301945</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -943,13 +943,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -974,19 +974,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>49.31110394229523</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1034,16 +1034,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>145.1806198985548</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>183.4693513325732</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>36.21593518981624</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1211,25 +1211,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1262,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>81.60516116216417</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1277,10 +1277,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>145.1806198985548</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>130.4655268502615</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>292.7428113915151</v>
+        <v>292.742811391515</v>
       </c>
       <c r="C11" t="n">
-        <v>275.2818614990434</v>
+        <v>275.281861499042</v>
       </c>
       <c r="D11" t="n">
-        <v>264.6920113487175</v>
+        <v>264.6920113487184</v>
       </c>
       <c r="E11" t="n">
-        <v>291.9393398002963</v>
+        <v>291.9393398002962</v>
       </c>
       <c r="F11" t="n">
-        <v>316.885015469746</v>
+        <v>316.8850154697459</v>
       </c>
       <c r="G11" t="n">
-        <v>323.0508974529291</v>
+        <v>323.050897452929</v>
       </c>
       <c r="H11" t="n">
         <v>226.3302535795011</v>
       </c>
       <c r="I11" t="n">
-        <v>33.32498986019344</v>
+        <v>33.3249898601934</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>67.51083621917439</v>
+        <v>67.51083621917437</v>
       </c>
       <c r="T11" t="n">
-        <v>123.2081244353881</v>
+        <v>123.208124435388</v>
       </c>
       <c r="U11" t="n">
-        <v>161.1737578526518</v>
+        <v>161.1737578526517</v>
       </c>
       <c r="V11" t="n">
         <v>237.7612281981694</v>
@@ -1438,7 +1438,7 @@
         <v>279.7400704065035</v>
       </c>
       <c r="Y11" t="n">
-        <v>296.2469083840881</v>
+        <v>296.246908384088</v>
       </c>
     </row>
     <row r="12">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.84094990997181</v>
+        <v>89.84094990997177</v>
       </c>
       <c r="C13" t="n">
-        <v>77.25579082666235</v>
+        <v>77.25579082666231</v>
       </c>
       <c r="D13" t="n">
-        <v>58.62444274624687</v>
+        <v>58.62444274624683</v>
       </c>
       <c r="E13" t="n">
-        <v>56.44293237460369</v>
+        <v>56.44293237460364</v>
       </c>
       <c r="F13" t="n">
-        <v>55.43001775096576</v>
+        <v>55.43001775096572</v>
       </c>
       <c r="G13" t="n">
-        <v>76.98582764574809</v>
+        <v>76.98582764574806</v>
       </c>
       <c r="H13" t="n">
-        <v>63.21968069866725</v>
+        <v>63.21968069866882</v>
       </c>
       <c r="I13" t="n">
-        <v>34.96204714633785</v>
+        <v>34.96204714633782</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.70377341497093</v>
+        <v>41.70377341497088</v>
       </c>
       <c r="S13" t="n">
         <v>116.3521968385658</v>
@@ -1584,7 +1584,7 @@
         <v>133.6214948185866</v>
       </c>
       <c r="U13" t="n">
-        <v>196.2726833695759</v>
+        <v>196.2726833695756</v>
       </c>
       <c r="V13" t="n">
         <v>162.1466130518625</v>
@@ -1593,10 +1593,10 @@
         <v>196.5319680646255</v>
       </c>
       <c r="X13" t="n">
-        <v>135.7186251170717</v>
+        <v>135.7186251170716</v>
       </c>
       <c r="Y13" t="n">
-        <v>128.5936230801293</v>
+        <v>128.5936230801292</v>
       </c>
     </row>
     <row r="14">
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>292.7428113915151</v>
+        <v>292.742811391515</v>
       </c>
       <c r="C14" t="n">
-        <v>275.2818614990421</v>
+        <v>275.281861499042</v>
       </c>
       <c r="D14" t="n">
-        <v>264.6920113487175</v>
+        <v>264.6920113487174</v>
       </c>
       <c r="E14" t="n">
-        <v>291.9393398002964</v>
+        <v>291.9393398002962</v>
       </c>
       <c r="F14" t="n">
-        <v>316.885015469746</v>
+        <v>316.8850154697459</v>
       </c>
       <c r="G14" t="n">
-        <v>323.0508974529291</v>
+        <v>323.050897452929</v>
       </c>
       <c r="H14" t="n">
         <v>226.3302535795011</v>
       </c>
       <c r="I14" t="n">
-        <v>33.32498986019347</v>
+        <v>33.3249898601934</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>67.51083621917442</v>
+        <v>67.51083621917512</v>
       </c>
       <c r="T14" t="n">
-        <v>123.2081244353881</v>
+        <v>123.208124435388</v>
       </c>
       <c r="U14" t="n">
-        <v>161.1737578526518</v>
+        <v>161.1737578526517</v>
       </c>
       <c r="V14" t="n">
         <v>237.7612281981694</v>
       </c>
       <c r="W14" t="n">
-        <v>259.2499384454479</v>
+        <v>259.2499384454475</v>
       </c>
       <c r="X14" t="n">
-        <v>279.7400704065036</v>
+        <v>279.7400704065035</v>
       </c>
       <c r="Y14" t="n">
-        <v>296.2469083840881</v>
+        <v>296.246908384088</v>
       </c>
     </row>
     <row r="15">
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.84094990997184</v>
+        <v>89.84094990997177</v>
       </c>
       <c r="C16" t="n">
-        <v>77.25579082666238</v>
+        <v>77.25579082666231</v>
       </c>
       <c r="D16" t="n">
-        <v>58.6244427462469</v>
+        <v>58.62444274624683</v>
       </c>
       <c r="E16" t="n">
-        <v>56.44293237460371</v>
+        <v>56.44293237460364</v>
       </c>
       <c r="F16" t="n">
-        <v>55.43001775096579</v>
+        <v>55.43001775096572</v>
       </c>
       <c r="G16" t="n">
-        <v>76.98582764574812</v>
+        <v>76.98582764574806</v>
       </c>
       <c r="H16" t="n">
-        <v>63.21968069866699</v>
+        <v>63.21968069866693</v>
       </c>
       <c r="I16" t="n">
-        <v>34.96204714633789</v>
+        <v>34.96204714633782</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.70377341497095</v>
+        <v>41.70377341497088</v>
       </c>
       <c r="S16" t="n">
-        <v>116.3521968385657</v>
+        <v>116.3521968385658</v>
       </c>
       <c r="T16" t="n">
-        <v>133.6214948185867</v>
+        <v>133.6214948185884</v>
       </c>
       <c r="U16" t="n">
-        <v>196.2726833695757</v>
+        <v>196.2726833695756</v>
       </c>
       <c r="V16" t="n">
         <v>162.1466130518625</v>
@@ -1830,10 +1830,10 @@
         <v>196.5319680646255</v>
       </c>
       <c r="X16" t="n">
-        <v>135.7186251170717</v>
+        <v>135.7186251170716</v>
       </c>
       <c r="Y16" t="n">
-        <v>128.5936230801293</v>
+        <v>128.5936230801292</v>
       </c>
     </row>
     <row r="17">
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>292.7428113915151</v>
+        <v>292.742811391515</v>
       </c>
       <c r="C17" t="n">
-        <v>275.2818614990421</v>
+        <v>275.281861499042</v>
       </c>
       <c r="D17" t="n">
-        <v>264.6920113487175</v>
+        <v>264.6920113487174</v>
       </c>
       <c r="E17" t="n">
-        <v>291.9393398002964</v>
+        <v>291.9393398002962</v>
       </c>
       <c r="F17" t="n">
-        <v>316.885015469746</v>
+        <v>316.8850154697459</v>
       </c>
       <c r="G17" t="n">
-        <v>323.0508974529291</v>
+        <v>323.050897452929</v>
       </c>
       <c r="H17" t="n">
         <v>226.3302535795011</v>
       </c>
       <c r="I17" t="n">
-        <v>33.32498986019347</v>
+        <v>33.3249898601934</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>67.51083621917422</v>
+        <v>67.51083621917437</v>
       </c>
       <c r="T17" t="n">
-        <v>123.2081244353881</v>
+        <v>123.208124435388</v>
       </c>
       <c r="U17" t="n">
-        <v>161.1737578526518</v>
+        <v>161.1737578526517</v>
       </c>
       <c r="V17" t="n">
         <v>237.7612281981694</v>
       </c>
       <c r="W17" t="n">
-        <v>259.2499384454476</v>
+        <v>259.2499384454475</v>
       </c>
       <c r="X17" t="n">
-        <v>279.7400704065036</v>
+        <v>279.7400704065035</v>
       </c>
       <c r="Y17" t="n">
-        <v>296.2469083840881</v>
+        <v>296.246908384088</v>
       </c>
     </row>
     <row r="18">
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>89.84094990997184</v>
+        <v>89.84094990997177</v>
       </c>
       <c r="C19" t="n">
-        <v>77.25579082666238</v>
+        <v>77.25579082666231</v>
       </c>
       <c r="D19" t="n">
-        <v>58.6244427462469</v>
+        <v>58.62444274624683</v>
       </c>
       <c r="E19" t="n">
-        <v>56.44293237460371</v>
+        <v>56.44293237460364</v>
       </c>
       <c r="F19" t="n">
-        <v>55.43001775096579</v>
+        <v>55.43001775096572</v>
       </c>
       <c r="G19" t="n">
-        <v>76.98582764574813</v>
+        <v>76.98582764574806</v>
       </c>
       <c r="H19" t="n">
-        <v>63.21968069866701</v>
+        <v>63.21968069866693</v>
       </c>
       <c r="I19" t="n">
-        <v>34.96204714633789</v>
+        <v>34.96204714633971</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.70377341497095</v>
+        <v>41.70377341497088</v>
       </c>
       <c r="S19" t="n">
-        <v>116.3521968385659</v>
+        <v>116.3521968385658</v>
       </c>
       <c r="T19" t="n">
-        <v>133.6214948185867</v>
+        <v>133.6214948185866</v>
       </c>
       <c r="U19" t="n">
-        <v>196.2726833695757</v>
+        <v>196.2726833695756</v>
       </c>
       <c r="V19" t="n">
         <v>162.1466130518625</v>
@@ -2067,10 +2067,10 @@
         <v>196.5319680646255</v>
       </c>
       <c r="X19" t="n">
-        <v>135.7186251170717</v>
+        <v>135.7186251170716</v>
       </c>
       <c r="Y19" t="n">
-        <v>128.5936230801293</v>
+        <v>128.5936230801292</v>
       </c>
     </row>
     <row r="20">
@@ -2098,10 +2098,10 @@
         <v>323.0508974529291</v>
       </c>
       <c r="H20" t="n">
-        <v>226.3302535795012</v>
+        <v>226.3302535795004</v>
       </c>
       <c r="I20" t="n">
-        <v>33.32498986019347</v>
+        <v>33.32498986019349</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>67.51083621917442</v>
+        <v>67.51083621917445</v>
       </c>
       <c r="T20" t="n">
         <v>123.2081244353881</v>
       </c>
       <c r="U20" t="n">
-        <v>161.1737578526518</v>
+        <v>161.1737578526514</v>
       </c>
       <c r="V20" t="n">
-        <v>237.7612281981694</v>
+        <v>237.7612281981695</v>
       </c>
       <c r="W20" t="n">
         <v>259.2499384454476</v>
@@ -2149,7 +2149,7 @@
         <v>279.7400704065036</v>
       </c>
       <c r="Y20" t="n">
-        <v>296.2469083840881</v>
+        <v>296.2469083840882</v>
       </c>
     </row>
     <row r="21">
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>89.84094990997184</v>
+        <v>89.84094990997185</v>
       </c>
       <c r="C22" t="n">
-        <v>77.25579082666238</v>
+        <v>77.25579082666239</v>
       </c>
       <c r="D22" t="n">
-        <v>58.6244427462469</v>
+        <v>58.62444274624691</v>
       </c>
       <c r="E22" t="n">
-        <v>56.44293237460371</v>
+        <v>56.44293237460373</v>
       </c>
       <c r="F22" t="n">
-        <v>55.43001775096579</v>
+        <v>55.4300177509658</v>
       </c>
       <c r="G22" t="n">
-        <v>76.98582764574812</v>
+        <v>76.98582764574815</v>
       </c>
       <c r="H22" t="n">
-        <v>63.21968069866699</v>
+        <v>63.21968069866702</v>
       </c>
       <c r="I22" t="n">
-        <v>34.96204714633788</v>
+        <v>34.9620471463379</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.7037734149708</v>
+        <v>41.70377341497096</v>
       </c>
       <c r="S22" t="n">
         <v>116.3521968385659</v>
@@ -2298,16 +2298,16 @@
         <v>196.2726833695757</v>
       </c>
       <c r="V22" t="n">
-        <v>162.1466130518625</v>
+        <v>162.1466130518626</v>
       </c>
       <c r="W22" t="n">
-        <v>196.5319680646255</v>
+        <v>196.5319680646256</v>
       </c>
       <c r="X22" t="n">
         <v>135.7186251170717</v>
       </c>
       <c r="Y22" t="n">
-        <v>128.5936230801293</v>
+        <v>128.5936230801294</v>
       </c>
     </row>
     <row r="23">
@@ -2326,7 +2326,7 @@
         <v>264.6920113487175</v>
       </c>
       <c r="E23" t="n">
-        <v>291.9393398002964</v>
+        <v>291.9393398002963</v>
       </c>
       <c r="F23" t="n">
         <v>316.885015469746</v>
@@ -2335,10 +2335,10 @@
         <v>323.0508974529291</v>
       </c>
       <c r="H23" t="n">
-        <v>226.3302535795012</v>
+        <v>226.3302535795011</v>
       </c>
       <c r="I23" t="n">
-        <v>33.3249898601935</v>
+        <v>33.32498986019345</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>67.51083621917444</v>
+        <v>67.51083621917442</v>
       </c>
       <c r="T23" t="n">
         <v>123.2081244353881</v>
@@ -2380,10 +2380,10 @@
         <v>237.7612281981694</v>
       </c>
       <c r="W23" t="n">
-        <v>259.2499384454476</v>
+        <v>259.2499384454475</v>
       </c>
       <c r="X23" t="n">
-        <v>279.7400704065036</v>
+        <v>279.7400704065035</v>
       </c>
       <c r="Y23" t="n">
         <v>296.2469083840881</v>
@@ -2417,7 +2417,7 @@
         <v>100.5528696083855</v>
       </c>
       <c r="I24" t="n">
-        <v>47.74894400914857</v>
+        <v>47.74894400914855</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>25.05405284676735</v>
+        <v>25.05405284676733</v>
       </c>
       <c r="S24" t="n">
         <v>149.2146408812902</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>89.84094990997184</v>
+        <v>89.84094990997183</v>
       </c>
       <c r="C25" t="n">
-        <v>77.25579082666238</v>
+        <v>77.25579082666236</v>
       </c>
       <c r="D25" t="n">
-        <v>58.6244427462469</v>
+        <v>58.62444274624688</v>
       </c>
       <c r="E25" t="n">
-        <v>56.44293237460371</v>
+        <v>56.4429323746037</v>
       </c>
       <c r="F25" t="n">
-        <v>55.43001775096579</v>
+        <v>55.43001775096577</v>
       </c>
       <c r="G25" t="n">
-        <v>76.98582764574813</v>
+        <v>76.9858276457481</v>
       </c>
       <c r="H25" t="n">
-        <v>63.21968069866701</v>
+        <v>63.21968069866698</v>
       </c>
       <c r="I25" t="n">
-        <v>34.96204714633789</v>
+        <v>34.96204714633783</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.70377341497095</v>
+        <v>41.70377341497094</v>
       </c>
       <c r="S25" t="n">
-        <v>116.3521968385659</v>
+        <v>116.3521968385657</v>
       </c>
       <c r="T25" t="n">
         <v>133.6214948185867</v>
       </c>
       <c r="U25" t="n">
-        <v>196.2726833695757</v>
+        <v>196.2726833695762</v>
       </c>
       <c r="V25" t="n">
         <v>162.1466130518625</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>292.7428113915151</v>
+        <v>292.742811391515</v>
       </c>
       <c r="C26" t="n">
-        <v>275.2818614990421</v>
+        <v>275.281861499042</v>
       </c>
       <c r="D26" t="n">
-        <v>264.6920113487175</v>
+        <v>264.6920113487174</v>
       </c>
       <c r="E26" t="n">
-        <v>291.9393398002963</v>
+        <v>291.9393398002962</v>
       </c>
       <c r="F26" t="n">
-        <v>316.885015469746</v>
+        <v>316.8850154697459</v>
       </c>
       <c r="G26" t="n">
-        <v>323.0508974529291</v>
+        <v>323.050897452929</v>
       </c>
       <c r="H26" t="n">
         <v>226.3302535795011</v>
       </c>
       <c r="I26" t="n">
-        <v>33.32498986019345</v>
+        <v>33.3249898601934</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>67.51083621917377</v>
+        <v>67.51083621917512</v>
       </c>
       <c r="T26" t="n">
-        <v>123.2081244353881</v>
+        <v>123.208124435388</v>
       </c>
       <c r="U26" t="n">
-        <v>161.1737578526518</v>
+        <v>161.1737578526517</v>
       </c>
       <c r="V26" t="n">
         <v>237.7612281981694</v>
@@ -2623,7 +2623,7 @@
         <v>279.7400704065035</v>
       </c>
       <c r="Y26" t="n">
-        <v>296.2469083840881</v>
+        <v>296.246908384088</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>100.5528696083855</v>
       </c>
       <c r="I27" t="n">
-        <v>47.74894400914857</v>
+        <v>47.74894400914855</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>25.05405284676735</v>
+        <v>25.05405284676733</v>
       </c>
       <c r="S27" t="n">
         <v>149.2146408812902</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.8409499099718</v>
+        <v>89.84094990997177</v>
       </c>
       <c r="C28" t="n">
-        <v>77.25579082666233</v>
+        <v>77.25579082666231</v>
       </c>
       <c r="D28" t="n">
-        <v>58.62444274624686</v>
+        <v>58.62444274624683</v>
       </c>
       <c r="E28" t="n">
-        <v>56.44293237460367</v>
+        <v>56.44293237460364</v>
       </c>
       <c r="F28" t="n">
-        <v>55.43001775096575</v>
+        <v>55.43001775096572</v>
       </c>
       <c r="G28" t="n">
-        <v>76.98582764574807</v>
+        <v>76.98582764574806</v>
       </c>
       <c r="H28" t="n">
-        <v>63.21968069866695</v>
+        <v>63.21968069866693</v>
       </c>
       <c r="I28" t="n">
-        <v>34.9620471463378</v>
+        <v>34.96204714633782</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.70377341497148</v>
+        <v>41.7037734149726</v>
       </c>
       <c r="S28" t="n">
         <v>116.3521968385658</v>
@@ -2769,7 +2769,7 @@
         <v>133.6214948185866</v>
       </c>
       <c r="U28" t="n">
-        <v>196.2726833695759</v>
+        <v>196.2726833695756</v>
       </c>
       <c r="V28" t="n">
         <v>162.1466130518625</v>
@@ -2778,10 +2778,10 @@
         <v>196.5319680646255</v>
       </c>
       <c r="X28" t="n">
-        <v>135.7186251170717</v>
+        <v>135.7186251170716</v>
       </c>
       <c r="Y28" t="n">
-        <v>128.5936230801293</v>
+        <v>128.5936230801292</v>
       </c>
     </row>
     <row r="29">
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>292.7428113915151</v>
+        <v>292.742811391515</v>
       </c>
       <c r="C29" t="n">
-        <v>275.2818614990421</v>
+        <v>275.281861499042</v>
       </c>
       <c r="D29" t="n">
-        <v>264.6920113487175</v>
+        <v>264.6920113487174</v>
       </c>
       <c r="E29" t="n">
-        <v>291.9393398002964</v>
+        <v>291.9393398002962</v>
       </c>
       <c r="F29" t="n">
-        <v>316.885015469746</v>
+        <v>316.8850154697459</v>
       </c>
       <c r="G29" t="n">
-        <v>323.0508974529291</v>
+        <v>323.050897452929</v>
       </c>
       <c r="H29" t="n">
-        <v>226.3302535795012</v>
+        <v>226.3302535795011</v>
       </c>
       <c r="I29" t="n">
-        <v>33.3249898601935</v>
+        <v>33.3249898601934</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>67.51083621917377</v>
+        <v>67.51083621917422</v>
       </c>
       <c r="T29" t="n">
-        <v>123.2081244353881</v>
+        <v>123.208124435388</v>
       </c>
       <c r="U29" t="n">
-        <v>161.1737578526518</v>
+        <v>161.1737578526523</v>
       </c>
       <c r="V29" t="n">
         <v>237.7612281981694</v>
       </c>
       <c r="W29" t="n">
-        <v>259.2499384454476</v>
+        <v>259.2499384454475</v>
       </c>
       <c r="X29" t="n">
-        <v>279.7400704065036</v>
+        <v>279.7400704065035</v>
       </c>
       <c r="Y29" t="n">
-        <v>296.2469083840881</v>
+        <v>296.246908384088</v>
       </c>
     </row>
     <row r="30">
@@ -2891,7 +2891,7 @@
         <v>100.5528696083855</v>
       </c>
       <c r="I30" t="n">
-        <v>47.74894400914857</v>
+        <v>47.74894400914855</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.05405284676735</v>
+        <v>25.05405284676733</v>
       </c>
       <c r="S30" t="n">
         <v>149.2146408812902</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.84094990997184</v>
+        <v>89.84094990997177</v>
       </c>
       <c r="C31" t="n">
-        <v>77.25579082666238</v>
+        <v>77.25579082666415</v>
       </c>
       <c r="D31" t="n">
-        <v>58.6244427462469</v>
+        <v>58.62444274624683</v>
       </c>
       <c r="E31" t="n">
-        <v>56.44293237460371</v>
+        <v>56.44293237460364</v>
       </c>
       <c r="F31" t="n">
-        <v>55.43001775096579</v>
+        <v>55.43001775096572</v>
       </c>
       <c r="G31" t="n">
-        <v>76.98582764574812</v>
+        <v>76.98582764574806</v>
       </c>
       <c r="H31" t="n">
-        <v>63.21968069866699</v>
+        <v>63.21968069866693</v>
       </c>
       <c r="I31" t="n">
-        <v>34.96204714633789</v>
+        <v>34.96204714633782</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.70377341497095</v>
+        <v>41.70377341497088</v>
       </c>
       <c r="S31" t="n">
-        <v>116.3521968385659</v>
+        <v>116.3521968385658</v>
       </c>
       <c r="T31" t="n">
-        <v>133.6214948185867</v>
+        <v>133.6214948185866</v>
       </c>
       <c r="U31" t="n">
-        <v>196.2726833695757</v>
+        <v>196.2726833695756</v>
       </c>
       <c r="V31" t="n">
         <v>162.1466130518625</v>
@@ -3015,10 +3015,10 @@
         <v>196.5319680646255</v>
       </c>
       <c r="X31" t="n">
-        <v>135.7186251170717</v>
+        <v>135.7186251170716</v>
       </c>
       <c r="Y31" t="n">
-        <v>128.5936230801293</v>
+        <v>128.5936230801292</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>226.3302535795012</v>
       </c>
       <c r="I32" t="n">
-        <v>33.3249898601935</v>
+        <v>33.32498986019351</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>67.51083621917444</v>
+        <v>67.51083621917446</v>
       </c>
       <c r="T32" t="n">
-        <v>123.2081244353877</v>
+        <v>123.2081244353881</v>
       </c>
       <c r="U32" t="n">
-        <v>161.1737578526518</v>
+        <v>161.1737578526514</v>
       </c>
       <c r="V32" t="n">
-        <v>237.7612281981694</v>
+        <v>237.7612281981695</v>
       </c>
       <c r="W32" t="n">
         <v>259.2499384454476</v>
@@ -3097,7 +3097,7 @@
         <v>279.7400704065036</v>
       </c>
       <c r="Y32" t="n">
-        <v>296.2469083840881</v>
+        <v>296.2469083840882</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>100.5528696083855</v>
       </c>
       <c r="I33" t="n">
-        <v>47.74894400914857</v>
+        <v>47.74894400914855</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>25.05405284676735</v>
+        <v>25.05405284676733</v>
       </c>
       <c r="S33" t="n">
         <v>149.2146408812902</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>89.84094990997184</v>
+        <v>89.84094990997188</v>
       </c>
       <c r="C34" t="n">
-        <v>77.25579082666238</v>
+        <v>77.25579082666242</v>
       </c>
       <c r="D34" t="n">
-        <v>58.6244427462469</v>
+        <v>58.62444274624694</v>
       </c>
       <c r="E34" t="n">
-        <v>56.44293237460371</v>
+        <v>56.44293237460376</v>
       </c>
       <c r="F34" t="n">
-        <v>55.43001775096579</v>
+        <v>55.43001775096583</v>
       </c>
       <c r="G34" t="n">
-        <v>76.98582764574813</v>
+        <v>76.98582764574817</v>
       </c>
       <c r="H34" t="n">
-        <v>63.21968069866701</v>
+        <v>63.21968069866705</v>
       </c>
       <c r="I34" t="n">
-        <v>34.96204714633789</v>
+        <v>34.96204714633678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.70377341497095</v>
+        <v>41.70377341497099</v>
       </c>
       <c r="S34" t="n">
         <v>116.3521968385659</v>
@@ -3246,16 +3246,16 @@
         <v>196.2726833695757</v>
       </c>
       <c r="V34" t="n">
-        <v>162.1466130518625</v>
+        <v>162.1466130518626</v>
       </c>
       <c r="W34" t="n">
-        <v>196.5319680646255</v>
+        <v>196.5319680646256</v>
       </c>
       <c r="X34" t="n">
         <v>135.7186251170717</v>
       </c>
       <c r="Y34" t="n">
-        <v>128.5936230801293</v>
+        <v>128.5936230801294</v>
       </c>
     </row>
     <row r="35">
@@ -3274,7 +3274,7 @@
         <v>264.6920113487175</v>
       </c>
       <c r="E35" t="n">
-        <v>291.9393398002964</v>
+        <v>291.9393398002963</v>
       </c>
       <c r="F35" t="n">
         <v>316.885015469746</v>
@@ -3283,10 +3283,10 @@
         <v>323.0508974529291</v>
       </c>
       <c r="H35" t="n">
-        <v>226.3302535795012</v>
+        <v>226.3302535795011</v>
       </c>
       <c r="I35" t="n">
-        <v>33.3249898601935</v>
+        <v>33.32498986019362</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>67.51083621917444</v>
+        <v>67.51083621917422</v>
       </c>
       <c r="T35" t="n">
-        <v>123.2081244353886</v>
+        <v>123.2081244353881</v>
       </c>
       <c r="U35" t="n">
-        <v>161.173757852651</v>
+        <v>161.1737578526518</v>
       </c>
       <c r="V35" t="n">
         <v>237.7612281981694</v>
       </c>
       <c r="W35" t="n">
-        <v>259.2499384454476</v>
+        <v>259.2499384454475</v>
       </c>
       <c r="X35" t="n">
-        <v>279.7400704065036</v>
+        <v>279.7400704065035</v>
       </c>
       <c r="Y35" t="n">
         <v>296.2469083840881</v>
@@ -3365,7 +3365,7 @@
         <v>100.5528696083855</v>
       </c>
       <c r="I36" t="n">
-        <v>47.74894400914857</v>
+        <v>47.74894400914855</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>25.05405284676735</v>
+        <v>25.05405284676733</v>
       </c>
       <c r="S36" t="n">
         <v>149.2146408812902</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>89.84094990997184</v>
+        <v>89.8409499099718</v>
       </c>
       <c r="C37" t="n">
-        <v>77.25579082666238</v>
+        <v>77.25579082666233</v>
       </c>
       <c r="D37" t="n">
-        <v>58.6244427462469</v>
+        <v>58.62444274624686</v>
       </c>
       <c r="E37" t="n">
-        <v>56.44293237460371</v>
+        <v>56.44293237460367</v>
       </c>
       <c r="F37" t="n">
-        <v>55.43001775096579</v>
+        <v>55.43001775096575</v>
       </c>
       <c r="G37" t="n">
-        <v>76.98582764574731</v>
+        <v>76.98582764574809</v>
       </c>
       <c r="H37" t="n">
-        <v>63.21968069866701</v>
+        <v>63.21968069866696</v>
       </c>
       <c r="I37" t="n">
-        <v>34.96204714633789</v>
+        <v>34.96204714633785</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.70377341497095</v>
+        <v>41.7037734149709</v>
       </c>
       <c r="S37" t="n">
-        <v>116.3521968385659</v>
+        <v>116.3521968385658</v>
       </c>
       <c r="T37" t="n">
-        <v>133.6214948185867</v>
+        <v>133.6214948185866</v>
       </c>
       <c r="U37" t="n">
         <v>196.2726833695757</v>
@@ -3511,7 +3511,7 @@
         <v>264.6920113487175</v>
       </c>
       <c r="E38" t="n">
-        <v>291.9393398002964</v>
+        <v>291.9393398002963</v>
       </c>
       <c r="F38" t="n">
         <v>316.885015469746</v>
@@ -3523,7 +3523,7 @@
         <v>226.3302535795011</v>
       </c>
       <c r="I38" t="n">
-        <v>33.32498986019347</v>
+        <v>33.32498986019345</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3565,10 +3565,10 @@
         <v>237.7612281981694</v>
       </c>
       <c r="W38" t="n">
-        <v>259.2499384454476</v>
+        <v>259.2499384454475</v>
       </c>
       <c r="X38" t="n">
-        <v>279.7400704065036</v>
+        <v>279.7400704065035</v>
       </c>
       <c r="Y38" t="n">
         <v>296.2469083840881</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>89.84094990997184</v>
+        <v>89.84094990997183</v>
       </c>
       <c r="C40" t="n">
-        <v>77.25579082666238</v>
+        <v>77.25579082666236</v>
       </c>
       <c r="D40" t="n">
-        <v>58.6244427462469</v>
+        <v>58.62444274624688</v>
       </c>
       <c r="E40" t="n">
-        <v>56.44293237460371</v>
+        <v>56.4429323746037</v>
       </c>
       <c r="F40" t="n">
-        <v>55.43001775096543</v>
+        <v>55.43001775096577</v>
       </c>
       <c r="G40" t="n">
-        <v>76.98582764574813</v>
+        <v>76.98582764574812</v>
       </c>
       <c r="H40" t="n">
-        <v>63.21968069866701</v>
+        <v>63.21968069866696</v>
       </c>
       <c r="I40" t="n">
-        <v>34.96204714633789</v>
+        <v>34.96204714633787</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.70377341497095</v>
+        <v>41.70377341497093</v>
       </c>
       <c r="S40" t="n">
-        <v>116.3521968385659</v>
+        <v>116.3521968385653</v>
       </c>
       <c r="T40" t="n">
-        <v>133.6214948185867</v>
+        <v>133.6214948185866</v>
       </c>
       <c r="U40" t="n">
-        <v>196.2726833695757</v>
+        <v>196.2726833695764</v>
       </c>
       <c r="V40" t="n">
         <v>162.1466130518625</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>336.14279129118</v>
+        <v>336.1427912911798</v>
       </c>
       <c r="C41" t="n">
-        <v>318.681841398707</v>
+        <v>318.6818413987068</v>
       </c>
       <c r="D41" t="n">
-        <v>308.0919912483824</v>
+        <v>308.0919912483822</v>
       </c>
       <c r="E41" t="n">
-        <v>335.3393196999612</v>
+        <v>335.339319699961</v>
       </c>
       <c r="F41" t="n">
-        <v>360.2849953694109</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>366.450877352594</v>
+        <v>366.4508773525938</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>55.74050011346415</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>110.9108161188391</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>166.6081043350528</v>
       </c>
       <c r="U41" t="n">
-        <v>204.5737377523166</v>
+        <v>204.5737377523165</v>
       </c>
       <c r="V41" t="n">
-        <v>254.1356332957777</v>
+        <v>281.1612080978341</v>
       </c>
       <c r="W41" t="n">
-        <v>302.6499183451124</v>
+        <v>302.6499183451123</v>
       </c>
       <c r="X41" t="n">
-        <v>323.1400503061685</v>
+        <v>323.1400503061683</v>
       </c>
       <c r="Y41" t="n">
-        <v>339.646888283753</v>
+        <v>339.6468882837528</v>
       </c>
     </row>
     <row r="42">
@@ -3900,25 +3900,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>120.6557707263271</v>
       </c>
       <c r="D43" t="n">
-        <v>102.0244226459118</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>99.84291227426857</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>98.82999765063065</v>
+        <v>98.82999765063047</v>
       </c>
       <c r="G43" t="n">
-        <v>9.102548255888719</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>78.36202704600257</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>24.45279634035488</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>159.7521767382306</v>
       </c>
       <c r="T43" t="n">
-        <v>177.0214747182515</v>
+        <v>177.0214747182513</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>239.6726632692404</v>
       </c>
       <c r="V43" t="n">
-        <v>205.5465929515274</v>
+        <v>205.5465929515272</v>
       </c>
       <c r="W43" t="n">
-        <v>239.9319479642904</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>179.1186050167366</v>
+        <v>179.1186050167364</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.9936029797942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>336.1427912911799</v>
+        <v>336.1427912911798</v>
       </c>
       <c r="C44" t="n">
-        <v>318.6818413987069</v>
+        <v>318.6818413987068</v>
       </c>
       <c r="D44" t="n">
-        <v>308.0919912483823</v>
+        <v>308.0919912483822</v>
       </c>
       <c r="E44" t="n">
-        <v>335.3393196999611</v>
+        <v>335.339319699961</v>
       </c>
       <c r="F44" t="n">
-        <v>360.2849953694108</v>
+        <v>360.2849953694107</v>
       </c>
       <c r="G44" t="n">
-        <v>172.8171982154857</v>
+        <v>366.4508773525938</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>269.7302334791659</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>76.72496975985815</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,13 +4030,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>166.6081043350529</v>
+        <v>112.2541678090722</v>
       </c>
       <c r="U44" t="n">
-        <v>204.5737377523166</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>281.1612080978342</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>302.6499183451123</v>
@@ -4045,7 +4045,7 @@
         <v>323.1400503061683</v>
       </c>
       <c r="Y44" t="n">
-        <v>339.6468882837529</v>
+        <v>339.6468882837528</v>
       </c>
     </row>
     <row r="45">
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>89.49364583596571</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>159.7521767382307</v>
+        <v>159.7521767382306</v>
       </c>
       <c r="T46" t="n">
-        <v>177.0214747182515</v>
+        <v>177.0214747182513</v>
       </c>
       <c r="U46" t="n">
-        <v>239.6726632692405</v>
+        <v>150.0477040884711</v>
       </c>
       <c r="V46" t="n">
-        <v>205.5465929515273</v>
+        <v>205.5465929515272</v>
       </c>
       <c r="W46" t="n">
-        <v>239.9319479642903</v>
+        <v>239.9319479642902</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>179.1186050167364</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.9936029797941</v>
+        <v>171.993602979794</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>577.2332497330343</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="C2" t="n">
-        <v>577.2332497330343</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="D2" t="n">
-        <v>577.2332497330343</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E2" t="n">
-        <v>577.2332497330343</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F2" t="n">
-        <v>487.4018176583718</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G2" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H2" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I2" t="n">
         <v>31.35113235729608</v>
@@ -4357,25 +4357,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T2" t="n">
-        <v>577.2332497330343</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U2" t="n">
-        <v>577.2332497330343</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V2" t="n">
-        <v>577.2332497330343</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="W2" t="n">
-        <v>577.2332497330343</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="X2" t="n">
-        <v>577.2332497330343</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="Y2" t="n">
-        <v>577.2332497330343</v>
+        <v>53.75394372784808</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>380.2300195200815</v>
+        <v>313.4946457291688</v>
       </c>
       <c r="C3" t="n">
-        <v>223.7040404982626</v>
+        <v>139.0416164480418</v>
       </c>
       <c r="D3" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E3" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F3" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4418,43 +4418,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>374.6018090363993</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W3" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X3" t="n">
-        <v>756.2056553051034</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y3" t="n">
-        <v>548.4453565401495</v>
+        <v>481.7099827492369</v>
       </c>
     </row>
     <row r="4">
@@ -4476,19 +4476,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>366.1018663125844</v>
+        <v>784.1002736601483</v>
       </c>
       <c r="C5" t="n">
-        <v>366.1018663125844</v>
+        <v>540.6514970160482</v>
       </c>
       <c r="D5" t="n">
-        <v>366.1018663125844</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="E5" t="n">
-        <v>366.1018663125844</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F5" t="n">
-        <v>259.4103516356203</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G5" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4591,28 +4591,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>366.1018663125844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>366.1018663125844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V5" t="n">
-        <v>366.1018663125844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W5" t="n">
-        <v>366.1018663125844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X5" t="n">
-        <v>366.1018663125844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y5" t="n">
-        <v>366.1018663125844</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="6">
@@ -4622,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>649.1947276839472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C6" t="n">
-        <v>474.7416984028202</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D6" t="n">
-        <v>325.807288741569</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E6" t="n">
-        <v>166.5698337361135</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
         <v>20.03527576299844</v>
@@ -4655,13 +4655,13 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N6" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
         <v>964.0571555106362</v>
@@ -4682,16 +4682,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W6" t="n">
-        <v>964.0571555106362</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X6" t="n">
-        <v>964.0571555106362</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y6" t="n">
-        <v>817.4100647040152</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="7">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>525.1941863946997</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="C8" t="n">
-        <v>281.7454097505996</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="D8" t="n">
-        <v>281.7454097505996</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="E8" t="n">
-        <v>281.7454097505996</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F8" t="n">
-        <v>274.7999090013961</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G8" t="n">
         <v>31.35113235729608</v>
@@ -4828,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>953.9655401424092</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U8" t="n">
-        <v>953.9655401424092</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V8" t="n">
-        <v>953.9655401424092</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="W8" t="n">
-        <v>953.9655401424092</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="X8" t="n">
-        <v>710.516763498309</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="Y8" t="n">
-        <v>710.516763498309</v>
+        <v>577.2332497330343</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>649.1947276839472</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="C9" t="n">
-        <v>474.7416984028202</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="D9" t="n">
-        <v>325.807288741569</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="E9" t="n">
-        <v>166.5698337361135</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H9" t="n">
         <v>20.03527576299844</v>
@@ -4886,19 +4886,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M9" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N9" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>851.8101010141643</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
         <v>964.0571555106362</v>
@@ -4910,25 +4910,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>708.2103552419474</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>479.9867369783365</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>479.9867369783365</v>
       </c>
       <c r="W9" t="n">
-        <v>964.0571555106362</v>
+        <v>479.9867369783365</v>
       </c>
       <c r="X9" t="n">
-        <v>964.0571555106362</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="Y9" t="n">
-        <v>817.4100647040152</v>
+        <v>272.1352367728036</v>
       </c>
     </row>
     <row r="10">
@@ -4950,19 +4950,19 @@
         <v>151.0645035650224</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -5020,7 +5020,7 @@
         <v>1820.095900347439</v>
       </c>
       <c r="C11" t="n">
-        <v>1542.033413984769</v>
+        <v>1542.03341398477</v>
       </c>
       <c r="D11" t="n">
         <v>1274.667745955761</v>
@@ -5041,10 +5041,10 @@
         <v>71.10158821569499</v>
       </c>
       <c r="J11" t="n">
-        <v>249.2363626397091</v>
+        <v>249.2363626397092</v>
       </c>
       <c r="K11" t="n">
-        <v>636.9590170723836</v>
+        <v>636.9590170723837</v>
       </c>
       <c r="L11" t="n">
         <v>1170.239882220686</v>
@@ -5062,13 +5062,13 @@
         <v>3323.269600003673</v>
       </c>
       <c r="Q11" t="n">
-        <v>3555.07941078475</v>
+        <v>3555.079410784749</v>
       </c>
       <c r="R11" t="n">
-        <v>3555.07941078475</v>
+        <v>3555.079410784749</v>
       </c>
       <c r="S11" t="n">
-        <v>3486.886646926998</v>
+        <v>3486.886646926997</v>
       </c>
       <c r="T11" t="n">
         <v>3362.433995982161</v>
@@ -5083,10 +5083,10 @@
         <v>2697.600738915223</v>
       </c>
       <c r="X11" t="n">
-        <v>2415.035011231887</v>
+        <v>2415.035011231886</v>
       </c>
       <c r="Y11" t="n">
-        <v>2115.795709833818</v>
+        <v>2115.795709833817</v>
       </c>
     </row>
     <row r="12">
@@ -5126,16 +5126,16 @@
         <v>502.2386301474696</v>
       </c>
       <c r="L12" t="n">
-        <v>992.2209905094544</v>
+        <v>920.4136755700623</v>
       </c>
       <c r="M12" t="n">
-        <v>1615.986515717317</v>
+        <v>1544.179200777925</v>
       </c>
       <c r="N12" t="n">
-        <v>1797.419321092522</v>
+        <v>2200.160956753248</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.098793120455</v>
+        <v>2343.916732697218</v>
       </c>
       <c r="P12" t="n">
         <v>2439.960350382057</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>498.2942540634044</v>
+        <v>498.2942540634053</v>
       </c>
       <c r="C13" t="n">
-        <v>420.2581017132404</v>
+        <v>420.2581017132414</v>
       </c>
       <c r="D13" t="n">
-        <v>361.0414928786475</v>
+        <v>361.0414928786486</v>
       </c>
       <c r="E13" t="n">
-        <v>304.0284298739974</v>
+        <v>304.0284298739984</v>
       </c>
       <c r="F13" t="n">
-        <v>248.0385129538299</v>
+        <v>248.0385129538311</v>
       </c>
       <c r="G13" t="n">
-        <v>170.2750506853971</v>
+        <v>170.2750506853987</v>
       </c>
       <c r="H13" t="n">
         <v>106.41678735341</v>
@@ -5199,16 +5199,16 @@
         <v>71.10158821569499</v>
       </c>
       <c r="J13" t="n">
-        <v>138.7485218715118</v>
+        <v>138.7485218715119</v>
       </c>
       <c r="K13" t="n">
-        <v>322.4370930476437</v>
+        <v>322.4370930476439</v>
       </c>
       <c r="L13" t="n">
-        <v>588.106816402122</v>
+        <v>588.1068164021221</v>
       </c>
       <c r="M13" t="n">
-        <v>873.7644385885117</v>
+        <v>873.7644385885119</v>
       </c>
       <c r="N13" t="n">
         <v>1160.182765121766</v>
@@ -5232,19 +5232,19 @@
         <v>1416.581590016169</v>
       </c>
       <c r="U13" t="n">
-        <v>1218.326354289324</v>
+        <v>1218.326354289325</v>
       </c>
       <c r="V13" t="n">
         <v>1054.541896661181</v>
       </c>
       <c r="W13" t="n">
-        <v>856.0247572019629</v>
+        <v>856.0247572019636</v>
       </c>
       <c r="X13" t="n">
-        <v>718.9352368816884</v>
+        <v>718.9352368816892</v>
       </c>
       <c r="Y13" t="n">
-        <v>589.0426883159012</v>
+        <v>589.0426883159021</v>
       </c>
     </row>
     <row r="14">
@@ -5260,16 +5260,16 @@
         <v>1542.033413984769</v>
       </c>
       <c r="D14" t="n">
-        <v>1274.667745955762</v>
+        <v>1274.667745955761</v>
       </c>
       <c r="E14" t="n">
-        <v>979.7795239352604</v>
+        <v>979.7795239352602</v>
       </c>
       <c r="F14" t="n">
-        <v>659.6936497233958</v>
+        <v>659.6936497233955</v>
       </c>
       <c r="G14" t="n">
-        <v>333.3796118921542</v>
+        <v>333.3796118921541</v>
       </c>
       <c r="H14" t="n">
         <v>104.7631941350823</v>
@@ -5278,10 +5278,10 @@
         <v>71.10158821569499</v>
       </c>
       <c r="J14" t="n">
-        <v>249.2363626397091</v>
+        <v>249.2363626397093</v>
       </c>
       <c r="K14" t="n">
-        <v>636.9590170723841</v>
+        <v>636.959017072384</v>
       </c>
       <c r="L14" t="n">
         <v>1170.239882220687</v>
@@ -5290,37 +5290,37 @@
         <v>1780.224142393353</v>
       </c>
       <c r="N14" t="n">
-        <v>2385.44658806871</v>
+        <v>2385.446588068709</v>
       </c>
       <c r="O14" t="n">
-        <v>2911.753343601289</v>
+        <v>2911.753343601288</v>
       </c>
       <c r="P14" t="n">
         <v>3323.269600003673</v>
       </c>
       <c r="Q14" t="n">
-        <v>3555.07941078475</v>
+        <v>3555.079410784749</v>
       </c>
       <c r="R14" t="n">
-        <v>3555.07941078475</v>
+        <v>3555.079410784749</v>
       </c>
       <c r="S14" t="n">
-        <v>3486.886646926998</v>
+        <v>3486.886646926996</v>
       </c>
       <c r="T14" t="n">
-        <v>3362.433995982161</v>
+        <v>3362.43399598216</v>
       </c>
       <c r="U14" t="n">
-        <v>3199.632220373422</v>
+        <v>3199.632220373421</v>
       </c>
       <c r="V14" t="n">
-        <v>2959.469363607594</v>
+        <v>2959.469363607593</v>
       </c>
       <c r="W14" t="n">
-        <v>2697.600738915223</v>
+        <v>2697.600738915222</v>
       </c>
       <c r="X14" t="n">
-        <v>2415.035011231886</v>
+        <v>2415.035011231885</v>
       </c>
       <c r="Y14" t="n">
         <v>2115.795709833817</v>
@@ -5360,19 +5360,19 @@
         <v>183.5040598342603</v>
       </c>
       <c r="K15" t="n">
-        <v>482.2851161049643</v>
+        <v>240.4180455050167</v>
       </c>
       <c r="L15" t="n">
-        <v>605.1355346165245</v>
+        <v>363.268464016577</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.901059824387</v>
+        <v>987.0339892244392</v>
       </c>
       <c r="N15" t="n">
-        <v>1884.88281579971</v>
+        <v>1643.015745199762</v>
       </c>
       <c r="O15" t="n">
-        <v>2028.63859174368</v>
+        <v>2176.695217227695</v>
       </c>
       <c r="P15" t="n">
         <v>2439.960350382057</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>498.2942540634039</v>
+        <v>498.2942540634035</v>
       </c>
       <c r="C16" t="n">
-        <v>420.2581017132399</v>
+        <v>420.2581017132395</v>
       </c>
       <c r="D16" t="n">
-        <v>361.041492878647</v>
+        <v>361.0414928786467</v>
       </c>
       <c r="E16" t="n">
-        <v>304.0284298739968</v>
+        <v>304.0284298739966</v>
       </c>
       <c r="F16" t="n">
-        <v>248.0385129538294</v>
+        <v>248.0385129538292</v>
       </c>
       <c r="G16" t="n">
-        <v>170.2750506853969</v>
+        <v>170.2750506853968</v>
       </c>
       <c r="H16" t="n">
         <v>106.41678735341</v>
       </c>
       <c r="I16" t="n">
-        <v>71.101588215695</v>
+        <v>71.10158821569499</v>
       </c>
       <c r="J16" t="n">
-        <v>138.7485218715117</v>
+        <v>138.7485218715119</v>
       </c>
       <c r="K16" t="n">
-        <v>322.4370930476437</v>
+        <v>322.4370930476439</v>
       </c>
       <c r="L16" t="n">
-        <v>588.1068164021219</v>
+        <v>588.1068164021221</v>
       </c>
       <c r="M16" t="n">
-        <v>873.7644385885116</v>
+        <v>873.7644385885119</v>
       </c>
       <c r="N16" t="n">
         <v>1160.182765121766</v>
@@ -5457,31 +5457,31 @@
         <v>1623.34494164282</v>
       </c>
       <c r="Q16" t="n">
-        <v>1711.205292109222</v>
+        <v>1711.205292109223</v>
       </c>
       <c r="R16" t="n">
-        <v>1669.080268457736</v>
+        <v>1669.080268457737</v>
       </c>
       <c r="S16" t="n">
         <v>1551.55279690363</v>
       </c>
       <c r="T16" t="n">
-        <v>1416.581590016168</v>
+        <v>1416.581590016167</v>
       </c>
       <c r="U16" t="n">
-        <v>1218.326354289324</v>
+        <v>1218.326354289323</v>
       </c>
       <c r="V16" t="n">
-        <v>1054.54189666118</v>
+        <v>1054.541896661179</v>
       </c>
       <c r="W16" t="n">
-        <v>856.0247572019624</v>
+        <v>856.0247572019617</v>
       </c>
       <c r="X16" t="n">
-        <v>718.935236881688</v>
+        <v>718.9352368816874</v>
       </c>
       <c r="Y16" t="n">
-        <v>589.0426883159007</v>
+        <v>589.0426883159003</v>
       </c>
     </row>
     <row r="17">
@@ -5497,16 +5497,16 @@
         <v>1542.033413984769</v>
       </c>
       <c r="D17" t="n">
-        <v>1274.667745955762</v>
+        <v>1274.667745955761</v>
       </c>
       <c r="E17" t="n">
-        <v>979.7795239352604</v>
+        <v>979.7795239352602</v>
       </c>
       <c r="F17" t="n">
-        <v>659.6936497233958</v>
+        <v>659.6936497233955</v>
       </c>
       <c r="G17" t="n">
-        <v>333.3796118921542</v>
+        <v>333.3796118921541</v>
       </c>
       <c r="H17" t="n">
         <v>104.7631941350823</v>
@@ -5515,16 +5515,16 @@
         <v>71.10158821569499</v>
       </c>
       <c r="J17" t="n">
-        <v>249.2363626397091</v>
+        <v>249.2363626397092</v>
       </c>
       <c r="K17" t="n">
         <v>636.9590170723837</v>
       </c>
       <c r="L17" t="n">
-        <v>1170.239882220687</v>
+        <v>1170.239882220686</v>
       </c>
       <c r="M17" t="n">
-        <v>1780.224142393353</v>
+        <v>1780.224142393352</v>
       </c>
       <c r="N17" t="n">
         <v>2385.446588068709</v>
@@ -5539,25 +5539,25 @@
         <v>3555.079410784749</v>
       </c>
       <c r="R17" t="n">
-        <v>3555.079410784749</v>
+        <v>3555.079410784748</v>
       </c>
       <c r="S17" t="n">
-        <v>3486.886646926997</v>
+        <v>3486.886646926996</v>
       </c>
       <c r="T17" t="n">
-        <v>3362.433995982161</v>
+        <v>3362.43399598216</v>
       </c>
       <c r="U17" t="n">
-        <v>3199.632220373422</v>
+        <v>3199.632220373421</v>
       </c>
       <c r="V17" t="n">
-        <v>2959.469363607594</v>
+        <v>2959.469363607593</v>
       </c>
       <c r="W17" t="n">
-        <v>2697.600738915223</v>
+        <v>2697.600738915222</v>
       </c>
       <c r="X17" t="n">
-        <v>2415.035011231886</v>
+        <v>2415.035011231885</v>
       </c>
       <c r="Y17" t="n">
         <v>2115.795709833817</v>
@@ -5606,10 +5606,10 @@
         <v>1248.854573866892</v>
       </c>
       <c r="N18" t="n">
-        <v>1904.836329842215</v>
+        <v>1494.959119715748</v>
       </c>
       <c r="O18" t="n">
-        <v>2048.592105786186</v>
+        <v>2028.63859174368</v>
       </c>
       <c r="P18" t="n">
         <v>2439.960350382057</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>498.2942540634039</v>
+        <v>498.2942540634053</v>
       </c>
       <c r="C19" t="n">
-        <v>420.2581017132399</v>
+        <v>420.2581017132414</v>
       </c>
       <c r="D19" t="n">
-        <v>361.041492878647</v>
+        <v>361.0414928786486</v>
       </c>
       <c r="E19" t="n">
-        <v>304.0284298739968</v>
+        <v>304.0284298739984</v>
       </c>
       <c r="F19" t="n">
-        <v>248.0385129538294</v>
+        <v>248.0385129538311</v>
       </c>
       <c r="G19" t="n">
-        <v>170.2750506853969</v>
+        <v>170.2750506853987</v>
       </c>
       <c r="H19" t="n">
-        <v>106.41678735341</v>
+        <v>106.4167873534119</v>
       </c>
       <c r="I19" t="n">
         <v>71.10158821569499</v>
@@ -5676,13 +5676,13 @@
         <v>138.7485218715119</v>
       </c>
       <c r="K19" t="n">
-        <v>322.4370930476438</v>
+        <v>322.4370930476439</v>
       </c>
       <c r="L19" t="n">
-        <v>588.106816402122</v>
+        <v>588.1068164021221</v>
       </c>
       <c r="M19" t="n">
-        <v>873.7644385885117</v>
+        <v>873.7644385885119</v>
       </c>
       <c r="N19" t="n">
         <v>1160.182765121766</v>
@@ -5694,7 +5694,7 @@
         <v>1623.34494164282</v>
       </c>
       <c r="Q19" t="n">
-        <v>1711.205292109222</v>
+        <v>1711.205292109223</v>
       </c>
       <c r="R19" t="n">
         <v>1669.080268457737</v>
@@ -5703,22 +5703,22 @@
         <v>1551.55279690363</v>
       </c>
       <c r="T19" t="n">
-        <v>1416.581590016168</v>
+        <v>1416.581590016169</v>
       </c>
       <c r="U19" t="n">
-        <v>1218.326354289324</v>
+        <v>1218.326354289325</v>
       </c>
       <c r="V19" t="n">
-        <v>1054.54189666118</v>
+        <v>1054.541896661181</v>
       </c>
       <c r="W19" t="n">
-        <v>856.0247572019624</v>
+        <v>856.0247572019636</v>
       </c>
       <c r="X19" t="n">
-        <v>718.935236881688</v>
+        <v>718.9352368816892</v>
       </c>
       <c r="Y19" t="n">
-        <v>589.0426883159007</v>
+        <v>589.0426883159021</v>
       </c>
     </row>
     <row r="20">
@@ -5728,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1820.095900347438</v>
+        <v>1820.095900347437</v>
       </c>
       <c r="C20" t="n">
         <v>1542.033413984769</v>
       </c>
       <c r="D20" t="n">
-        <v>1274.667745955762</v>
+        <v>1274.667745955761</v>
       </c>
       <c r="E20" t="n">
-        <v>979.7795239352604</v>
+        <v>979.7795239352597</v>
       </c>
       <c r="F20" t="n">
-        <v>659.6936497233958</v>
+        <v>659.693649723395</v>
       </c>
       <c r="G20" t="n">
-        <v>333.3796118921542</v>
+        <v>333.3796118921534</v>
       </c>
       <c r="H20" t="n">
-        <v>104.7631941350823</v>
+        <v>104.7631941350824</v>
       </c>
       <c r="I20" t="n">
         <v>71.10158821569499</v>
       </c>
       <c r="J20" t="n">
-        <v>249.2363626397091</v>
+        <v>249.2363626397092</v>
       </c>
       <c r="K20" t="n">
         <v>636.9590170723837</v>
       </c>
       <c r="L20" t="n">
-        <v>1170.239882220687</v>
+        <v>1170.239882220686</v>
       </c>
       <c r="M20" t="n">
-        <v>1780.224142393353</v>
+        <v>1780.224142393352</v>
       </c>
       <c r="N20" t="n">
         <v>2385.446588068709</v>
@@ -5782,7 +5782,7 @@
         <v>3486.886646926997</v>
       </c>
       <c r="T20" t="n">
-        <v>3362.433995982161</v>
+        <v>3362.43399598216</v>
       </c>
       <c r="U20" t="n">
         <v>3199.632220373422</v>
@@ -5791,10 +5791,10 @@
         <v>2959.469363607594</v>
       </c>
       <c r="W20" t="n">
-        <v>2697.600738915223</v>
+        <v>2697.600738915222</v>
       </c>
       <c r="X20" t="n">
-        <v>2415.035011231886</v>
+        <v>2415.035011231885</v>
       </c>
       <c r="Y20" t="n">
         <v>2115.795709833817</v>
@@ -5834,19 +5834,19 @@
         <v>183.5040598342603</v>
       </c>
       <c r="K21" t="n">
-        <v>240.4180455050167</v>
+        <v>502.2386301474696</v>
       </c>
       <c r="L21" t="n">
-        <v>363.268464016577</v>
+        <v>992.2209905094544</v>
       </c>
       <c r="M21" t="n">
-        <v>987.0339892244392</v>
+        <v>1313.526314340543</v>
       </c>
       <c r="N21" t="n">
-        <v>1643.015745199762</v>
+        <v>1494.959119715748</v>
       </c>
       <c r="O21" t="n">
-        <v>2176.695217227695</v>
+        <v>2028.63859174368</v>
       </c>
       <c r="P21" t="n">
         <v>2439.960350382057</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>498.2942540634037</v>
+        <v>498.294254063404</v>
       </c>
       <c r="C22" t="n">
-        <v>420.2581017132397</v>
+        <v>420.25810171324</v>
       </c>
       <c r="D22" t="n">
-        <v>361.0414928786469</v>
+        <v>361.0414928786471</v>
       </c>
       <c r="E22" t="n">
-        <v>304.0284298739967</v>
+        <v>304.0284298739969</v>
       </c>
       <c r="F22" t="n">
-        <v>248.0385129538292</v>
+        <v>248.0385129538294</v>
       </c>
       <c r="G22" t="n">
         <v>170.2750506853969</v>
@@ -5910,7 +5910,7 @@
         <v>71.10158821569499</v>
       </c>
       <c r="J22" t="n">
-        <v>138.7485218715119</v>
+        <v>138.7485218715118</v>
       </c>
       <c r="K22" t="n">
         <v>322.4370930476437</v>
@@ -5931,7 +5931,7 @@
         <v>1623.34494164282</v>
       </c>
       <c r="Q22" t="n">
-        <v>1711.205292109222</v>
+        <v>1711.205292109223</v>
       </c>
       <c r="R22" t="n">
         <v>1669.080268457737</v>
@@ -5940,7 +5940,7 @@
         <v>1551.55279690363</v>
       </c>
       <c r="T22" t="n">
-        <v>1416.581590016168</v>
+        <v>1416.581590016169</v>
       </c>
       <c r="U22" t="n">
         <v>1218.326354289324</v>
@@ -5949,13 +5949,13 @@
         <v>1054.54189666118</v>
       </c>
       <c r="W22" t="n">
-        <v>856.0247572019623</v>
+        <v>856.0247572019625</v>
       </c>
       <c r="X22" t="n">
-        <v>718.9352368816878</v>
+        <v>718.9352368816881</v>
       </c>
       <c r="Y22" t="n">
-        <v>589.0426883159006</v>
+        <v>589.0426883159008</v>
       </c>
     </row>
     <row r="23">
@@ -5974,28 +5974,28 @@
         <v>1274.667745955762</v>
       </c>
       <c r="E23" t="n">
-        <v>979.7795239352604</v>
+        <v>979.7795239352603</v>
       </c>
       <c r="F23" t="n">
-        <v>659.6936497233958</v>
+        <v>659.6936497233957</v>
       </c>
       <c r="G23" t="n">
         <v>333.3796118921542</v>
       </c>
       <c r="H23" t="n">
-        <v>104.7631941350824</v>
+        <v>104.7631941350823</v>
       </c>
       <c r="I23" t="n">
-        <v>71.10158821569497</v>
+        <v>71.10158821569499</v>
       </c>
       <c r="J23" t="n">
-        <v>249.2363626397091</v>
+        <v>249.2363626397092</v>
       </c>
       <c r="K23" t="n">
-        <v>636.9590170723836</v>
+        <v>636.9590170723837</v>
       </c>
       <c r="L23" t="n">
-        <v>1170.239882220686</v>
+        <v>1170.239882220687</v>
       </c>
       <c r="M23" t="n">
         <v>1780.224142393352</v>
@@ -6065,7 +6065,7 @@
         <v>119.3328447905925</v>
       </c>
       <c r="I24" t="n">
-        <v>71.10158821569497</v>
+        <v>71.10158821569499</v>
       </c>
       <c r="J24" t="n">
         <v>183.5040598342603</v>
@@ -6083,7 +6083,7 @@
         <v>1494.959119715748</v>
       </c>
       <c r="O24" t="n">
-        <v>2028.638591743681</v>
+        <v>2028.63859174368</v>
       </c>
       <c r="P24" t="n">
         <v>2439.960350382057</v>
@@ -6123,43 +6123,43 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>498.2942540634039</v>
+        <v>498.2942540634037</v>
       </c>
       <c r="C25" t="n">
-        <v>420.2581017132399</v>
+        <v>420.2581017132397</v>
       </c>
       <c r="D25" t="n">
-        <v>361.041492878647</v>
+        <v>361.0414928786469</v>
       </c>
       <c r="E25" t="n">
-        <v>304.0284298739968</v>
+        <v>304.0284298739967</v>
       </c>
       <c r="F25" t="n">
-        <v>248.0385129538294</v>
+        <v>248.0385129538292</v>
       </c>
       <c r="G25" t="n">
-        <v>170.2750506853969</v>
+        <v>170.2750506853968</v>
       </c>
       <c r="H25" t="n">
         <v>106.41678735341</v>
       </c>
       <c r="I25" t="n">
-        <v>71.10158821569497</v>
+        <v>71.10158821569499</v>
       </c>
       <c r="J25" t="n">
-        <v>138.7485218715118</v>
+        <v>138.7485218715119</v>
       </c>
       <c r="K25" t="n">
-        <v>322.4370930476437</v>
+        <v>322.4370930476438</v>
       </c>
       <c r="L25" t="n">
-        <v>588.1068164021219</v>
+        <v>588.1068164021221</v>
       </c>
       <c r="M25" t="n">
-        <v>873.7644385885114</v>
+        <v>873.7644385885117</v>
       </c>
       <c r="N25" t="n">
-        <v>1160.182765121765</v>
+        <v>1160.182765121766</v>
       </c>
       <c r="O25" t="n">
         <v>1415.521203172265</v>
@@ -6177,7 +6177,7 @@
         <v>1551.55279690363</v>
       </c>
       <c r="T25" t="n">
-        <v>1416.581590016168</v>
+        <v>1416.581590016169</v>
       </c>
       <c r="U25" t="n">
         <v>1218.326354289324</v>
@@ -6186,13 +6186,13 @@
         <v>1054.54189666118</v>
       </c>
       <c r="W25" t="n">
-        <v>856.0247572019624</v>
+        <v>856.0247572019623</v>
       </c>
       <c r="X25" t="n">
-        <v>718.935236881688</v>
+        <v>718.9352368816877</v>
       </c>
       <c r="Y25" t="n">
-        <v>589.0426883159007</v>
+        <v>589.0426883159005</v>
       </c>
     </row>
     <row r="26">
@@ -6208,22 +6208,22 @@
         <v>1542.033413984769</v>
       </c>
       <c r="D26" t="n">
-        <v>1274.667745955762</v>
+        <v>1274.667745955761</v>
       </c>
       <c r="E26" t="n">
-        <v>979.7795239352603</v>
+        <v>979.7795239352602</v>
       </c>
       <c r="F26" t="n">
-        <v>659.6936497233957</v>
+        <v>659.6936497233955</v>
       </c>
       <c r="G26" t="n">
-        <v>333.3796118921542</v>
+        <v>333.3796118921541</v>
       </c>
       <c r="H26" t="n">
         <v>104.7631941350823</v>
       </c>
       <c r="I26" t="n">
-        <v>71.10158821569497</v>
+        <v>71.10158821569499</v>
       </c>
       <c r="J26" t="n">
         <v>249.2363626397092</v>
@@ -6253,22 +6253,22 @@
         <v>3555.079410784749</v>
       </c>
       <c r="S26" t="n">
-        <v>3486.886646926997</v>
+        <v>3486.886646926996</v>
       </c>
       <c r="T26" t="n">
-        <v>3362.433995982161</v>
+        <v>3362.43399598216</v>
       </c>
       <c r="U26" t="n">
-        <v>3199.632220373422</v>
+        <v>3199.632220373421</v>
       </c>
       <c r="V26" t="n">
-        <v>2959.469363607594</v>
+        <v>2959.469363607593</v>
       </c>
       <c r="W26" t="n">
-        <v>2697.600738915223</v>
+        <v>2697.600738915222</v>
       </c>
       <c r="X26" t="n">
-        <v>2415.035011231886</v>
+        <v>2415.035011231885</v>
       </c>
       <c r="Y26" t="n">
         <v>2115.795709833817</v>
@@ -6302,7 +6302,7 @@
         <v>119.3328447905925</v>
       </c>
       <c r="I27" t="n">
-        <v>71.10158821569497</v>
+        <v>71.10158821569499</v>
       </c>
       <c r="J27" t="n">
         <v>183.5040598342603</v>
@@ -6314,13 +6314,13 @@
         <v>992.2209905094544</v>
       </c>
       <c r="M27" t="n">
-        <v>1313.526314340543</v>
+        <v>1615.986515717317</v>
       </c>
       <c r="N27" t="n">
-        <v>1494.959119715748</v>
+        <v>1884.88281579971</v>
       </c>
       <c r="O27" t="n">
-        <v>2028.638591743681</v>
+        <v>2028.63859174368</v>
       </c>
       <c r="P27" t="n">
         <v>2439.960350382057</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>498.2942540634034</v>
+        <v>498.2942540634035</v>
       </c>
       <c r="C28" t="n">
-        <v>420.2581017132394</v>
+        <v>420.2581017132395</v>
       </c>
       <c r="D28" t="n">
-        <v>361.0414928786466</v>
+        <v>361.0414928786467</v>
       </c>
       <c r="E28" t="n">
-        <v>304.0284298739965</v>
+        <v>304.0284298739966</v>
       </c>
       <c r="F28" t="n">
-        <v>248.038512953829</v>
+        <v>248.0385129538292</v>
       </c>
       <c r="G28" t="n">
         <v>170.2750506853968</v>
       </c>
       <c r="H28" t="n">
-        <v>106.4167873534099</v>
+        <v>106.41678735341</v>
       </c>
       <c r="I28" t="n">
         <v>71.10158821569499</v>
@@ -6387,7 +6387,7 @@
         <v>138.7485218715119</v>
       </c>
       <c r="K28" t="n">
-        <v>322.4370930476438</v>
+        <v>322.4370930476439</v>
       </c>
       <c r="L28" t="n">
         <v>588.1068164021221</v>
@@ -6405,31 +6405,31 @@
         <v>1623.34494164282</v>
       </c>
       <c r="Q28" t="n">
-        <v>1711.205292109222</v>
+        <v>1711.205292109223</v>
       </c>
       <c r="R28" t="n">
-        <v>1669.080268457736</v>
+        <v>1669.080268457735</v>
       </c>
       <c r="S28" t="n">
         <v>1551.552796903629</v>
       </c>
       <c r="T28" t="n">
-        <v>1416.581590016168</v>
+        <v>1416.581590016167</v>
       </c>
       <c r="U28" t="n">
-        <v>1218.326354289324</v>
+        <v>1218.326354289323</v>
       </c>
       <c r="V28" t="n">
-        <v>1054.54189666118</v>
+        <v>1054.541896661179</v>
       </c>
       <c r="W28" t="n">
-        <v>856.0247572019618</v>
+        <v>856.0247572019617</v>
       </c>
       <c r="X28" t="n">
-        <v>718.9352368816875</v>
+        <v>718.9352368816874</v>
       </c>
       <c r="Y28" t="n">
-        <v>589.0426883159001</v>
+        <v>589.0426883159003</v>
       </c>
     </row>
     <row r="29">
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1820.095900347438</v>
+        <v>1820.095900347437</v>
       </c>
       <c r="C29" t="n">
         <v>1542.033413984769</v>
       </c>
       <c r="D29" t="n">
-        <v>1274.667745955762</v>
+        <v>1274.667745955761</v>
       </c>
       <c r="E29" t="n">
-        <v>979.7795239352604</v>
+        <v>979.77952393526</v>
       </c>
       <c r="F29" t="n">
-        <v>659.6936497233958</v>
+        <v>659.6936497233954</v>
       </c>
       <c r="G29" t="n">
-        <v>333.3796118921542</v>
+        <v>333.379611892154</v>
       </c>
       <c r="H29" t="n">
-        <v>104.7631941350824</v>
+        <v>104.7631941350823</v>
       </c>
       <c r="I29" t="n">
-        <v>71.10158821569497</v>
+        <v>71.10158821569499</v>
       </c>
       <c r="J29" t="n">
-        <v>249.2363626397091</v>
+        <v>249.2363626397092</v>
       </c>
       <c r="K29" t="n">
-        <v>636.9590170723839</v>
+        <v>636.9590170723837</v>
       </c>
       <c r="L29" t="n">
-        <v>1170.239882220687</v>
+        <v>1170.239882220686</v>
       </c>
       <c r="M29" t="n">
-        <v>1780.224142393353</v>
+        <v>1780.224142393352</v>
       </c>
       <c r="N29" t="n">
         <v>2385.446588068709</v>
@@ -6484,7 +6484,7 @@
         <v>3323.269600003673</v>
       </c>
       <c r="Q29" t="n">
-        <v>3555.079410784749</v>
+        <v>3555.07941078475</v>
       </c>
       <c r="R29" t="n">
         <v>3555.079410784749</v>
@@ -6496,7 +6496,7 @@
         <v>3362.433995982161</v>
       </c>
       <c r="U29" t="n">
-        <v>3199.632220373422</v>
+        <v>3199.632220373421</v>
       </c>
       <c r="V29" t="n">
         <v>2959.469363607594</v>
@@ -6539,7 +6539,7 @@
         <v>119.3328447905925</v>
       </c>
       <c r="I30" t="n">
-        <v>71.10158821569497</v>
+        <v>71.10158821569499</v>
       </c>
       <c r="J30" t="n">
         <v>183.5040598342603</v>
@@ -6551,13 +6551,13 @@
         <v>992.2209905094544</v>
       </c>
       <c r="M30" t="n">
-        <v>1313.526314340543</v>
+        <v>1615.986515717317</v>
       </c>
       <c r="N30" t="n">
-        <v>1494.959119715748</v>
+        <v>1884.88281579971</v>
       </c>
       <c r="O30" t="n">
-        <v>2028.638591743681</v>
+        <v>2028.63859174368</v>
       </c>
       <c r="P30" t="n">
         <v>2439.960350382057</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>498.2942540634041</v>
+        <v>498.2942540634053</v>
       </c>
       <c r="C31" t="n">
-        <v>420.2581017132401</v>
+        <v>420.2581017132395</v>
       </c>
       <c r="D31" t="n">
-        <v>361.0414928786473</v>
+        <v>361.0414928786467</v>
       </c>
       <c r="E31" t="n">
-        <v>304.0284298739971</v>
+        <v>304.0284298739966</v>
       </c>
       <c r="F31" t="n">
-        <v>248.0385129538296</v>
+        <v>248.0385129538292</v>
       </c>
       <c r="G31" t="n">
-        <v>170.2750506853969</v>
+        <v>170.2750506853968</v>
       </c>
       <c r="H31" t="n">
         <v>106.41678735341</v>
@@ -6621,25 +6621,25 @@
         <v>71.10158821569499</v>
       </c>
       <c r="J31" t="n">
-        <v>138.7485218715118</v>
+        <v>138.7485218715119</v>
       </c>
       <c r="K31" t="n">
-        <v>322.4370930476438</v>
+        <v>322.4370930476439</v>
       </c>
       <c r="L31" t="n">
-        <v>588.106816402122</v>
+        <v>588.1068164021221</v>
       </c>
       <c r="M31" t="n">
-        <v>873.7644385885114</v>
+        <v>873.7644385885119</v>
       </c>
       <c r="N31" t="n">
-        <v>1160.182765121765</v>
+        <v>1160.182765121766</v>
       </c>
       <c r="O31" t="n">
         <v>1415.521203172265</v>
       </c>
       <c r="P31" t="n">
-        <v>1623.344941642819</v>
+        <v>1623.34494164282</v>
       </c>
       <c r="Q31" t="n">
         <v>1711.205292109223</v>
@@ -6654,19 +6654,19 @@
         <v>1416.581590016169</v>
       </c>
       <c r="U31" t="n">
-        <v>1218.326354289324</v>
+        <v>1218.326354289325</v>
       </c>
       <c r="V31" t="n">
-        <v>1054.54189666118</v>
+        <v>1054.541896661181</v>
       </c>
       <c r="W31" t="n">
-        <v>856.0247572019625</v>
+        <v>856.0247572019636</v>
       </c>
       <c r="X31" t="n">
-        <v>718.9352368816881</v>
+        <v>718.9352368816892</v>
       </c>
       <c r="Y31" t="n">
-        <v>589.0426883159009</v>
+        <v>589.0426883159021</v>
       </c>
     </row>
     <row r="32">
@@ -6679,13 +6679,13 @@
         <v>1820.095900347438</v>
       </c>
       <c r="C32" t="n">
-        <v>1542.033413984769</v>
+        <v>1542.03341398477</v>
       </c>
       <c r="D32" t="n">
         <v>1274.667745955762</v>
       </c>
       <c r="E32" t="n">
-        <v>979.7795239352604</v>
+        <v>979.7795239352605</v>
       </c>
       <c r="F32" t="n">
         <v>659.6936497233958</v>
@@ -6697,34 +6697,34 @@
         <v>104.7631941350824</v>
       </c>
       <c r="I32" t="n">
-        <v>71.10158821569497</v>
+        <v>71.10158821569499</v>
       </c>
       <c r="J32" t="n">
         <v>249.2363626397092</v>
       </c>
       <c r="K32" t="n">
-        <v>636.9590170723836</v>
+        <v>636.9590170723837</v>
       </c>
       <c r="L32" t="n">
-        <v>1170.239882220686</v>
+        <v>1170.239882220687</v>
       </c>
       <c r="M32" t="n">
-        <v>1780.224142393352</v>
+        <v>1780.224142393353</v>
       </c>
       <c r="N32" t="n">
-        <v>2385.446588068709</v>
+        <v>2385.44658806871</v>
       </c>
       <c r="O32" t="n">
-        <v>2911.753343601288</v>
+        <v>2911.753343601289</v>
       </c>
       <c r="P32" t="n">
         <v>3323.269600003673</v>
       </c>
       <c r="Q32" t="n">
-        <v>3555.079410784749</v>
+        <v>3555.07941078475</v>
       </c>
       <c r="R32" t="n">
-        <v>3555.079410784749</v>
+        <v>3555.07941078475</v>
       </c>
       <c r="S32" t="n">
         <v>3486.886646926997</v>
@@ -6776,25 +6776,25 @@
         <v>119.3328447905925</v>
       </c>
       <c r="I33" t="n">
-        <v>71.10158821569497</v>
+        <v>71.10158821569499</v>
       </c>
       <c r="J33" t="n">
         <v>183.5040598342603</v>
       </c>
       <c r="K33" t="n">
-        <v>502.2386301474696</v>
+        <v>407.63956097454</v>
       </c>
       <c r="L33" t="n">
-        <v>992.2209905094544</v>
+        <v>530.4899794861002</v>
       </c>
       <c r="M33" t="n">
-        <v>1313.526314340543</v>
+        <v>1154.255504693962</v>
       </c>
       <c r="N33" t="n">
-        <v>1494.959119715748</v>
+        <v>1810.237260669286</v>
       </c>
       <c r="O33" t="n">
-        <v>2028.638591743681</v>
+        <v>2343.916732697218</v>
       </c>
       <c r="P33" t="n">
         <v>2439.960350382057</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>498.2942540634039</v>
+        <v>498.2942540634031</v>
       </c>
       <c r="C34" t="n">
-        <v>420.2581017132399</v>
+        <v>420.258101713239</v>
       </c>
       <c r="D34" t="n">
-        <v>361.041492878647</v>
+        <v>361.0414928786461</v>
       </c>
       <c r="E34" t="n">
-        <v>304.0284298739968</v>
+        <v>304.0284298739958</v>
       </c>
       <c r="F34" t="n">
-        <v>248.0385129538294</v>
+        <v>248.0385129538283</v>
       </c>
       <c r="G34" t="n">
-        <v>170.2750506853969</v>
+        <v>170.2750506853958</v>
       </c>
       <c r="H34" t="n">
-        <v>106.41678735341</v>
+        <v>106.4167873534089</v>
       </c>
       <c r="I34" t="n">
-        <v>71.10158821569497</v>
+        <v>71.10158821569499</v>
       </c>
       <c r="J34" t="n">
         <v>138.7485218715118</v>
@@ -6882,28 +6882,28 @@
         <v>1711.205292109222</v>
       </c>
       <c r="R34" t="n">
-        <v>1669.080268457737</v>
+        <v>1669.080268457736</v>
       </c>
       <c r="S34" t="n">
-        <v>1551.55279690363</v>
+        <v>1551.552796903629</v>
       </c>
       <c r="T34" t="n">
         <v>1416.581590016168</v>
       </c>
       <c r="U34" t="n">
-        <v>1218.326354289324</v>
+        <v>1218.326354289323</v>
       </c>
       <c r="V34" t="n">
-        <v>1054.54189666118</v>
+        <v>1054.541896661179</v>
       </c>
       <c r="W34" t="n">
-        <v>856.0247572019624</v>
+        <v>856.0247572019616</v>
       </c>
       <c r="X34" t="n">
-        <v>718.935236881688</v>
+        <v>718.9352368816872</v>
       </c>
       <c r="Y34" t="n">
-        <v>589.0426883159007</v>
+        <v>589.0426883158999</v>
       </c>
     </row>
     <row r="35">
@@ -6919,55 +6919,55 @@
         <v>1542.033413984769</v>
       </c>
       <c r="D35" t="n">
-        <v>1274.667745955761</v>
+        <v>1274.667745955762</v>
       </c>
       <c r="E35" t="n">
-        <v>979.7795239352599</v>
+        <v>979.7795239352604</v>
       </c>
       <c r="F35" t="n">
-        <v>659.6936497233952</v>
+        <v>659.6936497233958</v>
       </c>
       <c r="G35" t="n">
-        <v>333.3796118921537</v>
+        <v>333.3796118921543</v>
       </c>
       <c r="H35" t="n">
-        <v>104.7631941350824</v>
+        <v>104.7631941350825</v>
       </c>
       <c r="I35" t="n">
-        <v>71.10158821569499</v>
+        <v>71.101588215695</v>
       </c>
       <c r="J35" t="n">
-        <v>249.2363626397092</v>
+        <v>249.2363626397093</v>
       </c>
       <c r="K35" t="n">
-        <v>636.9590170723836</v>
+        <v>636.9590170723839</v>
       </c>
       <c r="L35" t="n">
-        <v>1170.239882220686</v>
+        <v>1170.239882220687</v>
       </c>
       <c r="M35" t="n">
         <v>1780.224142393353</v>
       </c>
       <c r="N35" t="n">
-        <v>2385.446588068709</v>
+        <v>2385.44658806871</v>
       </c>
       <c r="O35" t="n">
-        <v>2911.753343601288</v>
+        <v>2911.753343601289</v>
       </c>
       <c r="P35" t="n">
         <v>3323.269600003673</v>
       </c>
       <c r="Q35" t="n">
-        <v>3555.079410784749</v>
+        <v>3555.07941078475</v>
       </c>
       <c r="R35" t="n">
-        <v>3555.079410784749</v>
+        <v>3555.07941078475</v>
       </c>
       <c r="S35" t="n">
-        <v>3486.886646926997</v>
+        <v>3486.886646926998</v>
       </c>
       <c r="T35" t="n">
-        <v>3362.43399598216</v>
+        <v>3362.433995982161</v>
       </c>
       <c r="U35" t="n">
         <v>3199.632220373422</v>
@@ -6976,10 +6976,10 @@
         <v>2959.469363607594</v>
       </c>
       <c r="W35" t="n">
-        <v>2697.600738915223</v>
+        <v>2697.600738915224</v>
       </c>
       <c r="X35" t="n">
-        <v>2415.035011231886</v>
+        <v>2415.035011231887</v>
       </c>
       <c r="Y35" t="n">
         <v>2115.795709833817</v>
@@ -7025,13 +7025,13 @@
         <v>992.2209905094544</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.526314340543</v>
+        <v>1615.986515717317</v>
       </c>
       <c r="N36" t="n">
-        <v>1494.959119715748</v>
+        <v>1797.419321092522</v>
       </c>
       <c r="O36" t="n">
-        <v>2028.638591743681</v>
+        <v>2028.63859174368</v>
       </c>
       <c r="P36" t="n">
         <v>2439.960350382057</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>498.2942540634031</v>
+        <v>498.2942540634036</v>
       </c>
       <c r="C37" t="n">
-        <v>420.2581017132391</v>
+        <v>420.2581017132396</v>
       </c>
       <c r="D37" t="n">
-        <v>361.0414928786462</v>
+        <v>361.0414928786469</v>
       </c>
       <c r="E37" t="n">
-        <v>304.028429873996</v>
+        <v>304.0284298739967</v>
       </c>
       <c r="F37" t="n">
-        <v>248.0385129538285</v>
+        <v>248.0385129538292</v>
       </c>
       <c r="G37" t="n">
-        <v>170.2750506853969</v>
+        <v>170.2750506853968</v>
       </c>
       <c r="H37" t="n">
         <v>106.41678735341</v>
@@ -7095,25 +7095,25 @@
         <v>71.10158821569499</v>
       </c>
       <c r="J37" t="n">
-        <v>138.7485218715118</v>
+        <v>138.7485218715119</v>
       </c>
       <c r="K37" t="n">
-        <v>322.4370930476437</v>
+        <v>322.4370930476438</v>
       </c>
       <c r="L37" t="n">
-        <v>588.1068164021219</v>
+        <v>588.1068164021221</v>
       </c>
       <c r="M37" t="n">
-        <v>873.7644385885114</v>
+        <v>873.7644385885117</v>
       </c>
       <c r="N37" t="n">
-        <v>1160.182765121765</v>
+        <v>1160.182765121766</v>
       </c>
       <c r="O37" t="n">
-        <v>1415.521203172264</v>
+        <v>1415.521203172265</v>
       </c>
       <c r="P37" t="n">
-        <v>1623.344941642819</v>
+        <v>1623.34494164282</v>
       </c>
       <c r="Q37" t="n">
         <v>1711.205292109222</v>
@@ -7128,19 +7128,19 @@
         <v>1416.581590016168</v>
       </c>
       <c r="U37" t="n">
-        <v>1218.326354289323</v>
+        <v>1218.326354289324</v>
       </c>
       <c r="V37" t="n">
-        <v>1054.541896661179</v>
+        <v>1054.54189666118</v>
       </c>
       <c r="W37" t="n">
-        <v>856.0247572019616</v>
+        <v>856.0247572019621</v>
       </c>
       <c r="X37" t="n">
-        <v>718.9352368816872</v>
+        <v>718.9352368816876</v>
       </c>
       <c r="Y37" t="n">
-        <v>589.0426883158999</v>
+        <v>589.0426883159004</v>
       </c>
     </row>
     <row r="38">
@@ -7159,10 +7159,10 @@
         <v>1274.667745955762</v>
       </c>
       <c r="E38" t="n">
-        <v>979.7795239352604</v>
+        <v>979.7795239352603</v>
       </c>
       <c r="F38" t="n">
-        <v>659.6936497233958</v>
+        <v>659.6936497233957</v>
       </c>
       <c r="G38" t="n">
         <v>333.3796118921542</v>
@@ -7174,16 +7174,16 @@
         <v>71.10158821569499</v>
       </c>
       <c r="J38" t="n">
-        <v>249.2363626397092</v>
+        <v>249.2363626397091</v>
       </c>
       <c r="K38" t="n">
         <v>636.9590170723837</v>
       </c>
       <c r="L38" t="n">
-        <v>1170.239882220686</v>
+        <v>1170.239882220687</v>
       </c>
       <c r="M38" t="n">
-        <v>1780.224142393352</v>
+        <v>1780.224142393353</v>
       </c>
       <c r="N38" t="n">
         <v>2385.446588068709</v>
@@ -7262,10 +7262,10 @@
         <v>992.2209905094544</v>
       </c>
       <c r="M39" t="n">
-        <v>1313.526314340543</v>
+        <v>1615.986515717317</v>
       </c>
       <c r="N39" t="n">
-        <v>1494.959119715748</v>
+        <v>1884.88281579971</v>
       </c>
       <c r="O39" t="n">
         <v>2028.63859174368</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>498.2942540634035</v>
+        <v>498.2942540634038</v>
       </c>
       <c r="C40" t="n">
-        <v>420.2581017132395</v>
+        <v>420.2581017132398</v>
       </c>
       <c r="D40" t="n">
-        <v>361.0414928786467</v>
+        <v>361.041492878647</v>
       </c>
       <c r="E40" t="n">
-        <v>304.0284298739965</v>
+        <v>304.0284298739967</v>
       </c>
       <c r="F40" t="n">
-        <v>248.0385129538294</v>
+        <v>248.0385129538293</v>
       </c>
       <c r="G40" t="n">
-        <v>170.2750506853969</v>
+        <v>170.2750506853968</v>
       </c>
       <c r="H40" t="n">
         <v>106.41678735341</v>
@@ -7335,10 +7335,10 @@
         <v>138.7485218715119</v>
       </c>
       <c r="K40" t="n">
-        <v>322.4370930476438</v>
+        <v>322.4370930476439</v>
       </c>
       <c r="L40" t="n">
-        <v>588.106816402122</v>
+        <v>588.1068164021221</v>
       </c>
       <c r="M40" t="n">
         <v>873.7644385885117</v>
@@ -7359,10 +7359,10 @@
         <v>1669.080268457736</v>
       </c>
       <c r="S40" t="n">
-        <v>1551.552796903629</v>
+        <v>1551.55279690363</v>
       </c>
       <c r="T40" t="n">
-        <v>1416.581590016168</v>
+        <v>1416.581590016169</v>
       </c>
       <c r="U40" t="n">
         <v>1218.326354289324</v>
@@ -7371,13 +7371,13 @@
         <v>1054.54189666118</v>
       </c>
       <c r="W40" t="n">
-        <v>856.0247572019621</v>
+        <v>856.0247572019623</v>
       </c>
       <c r="X40" t="n">
-        <v>718.9352368816876</v>
+        <v>718.9352368816878</v>
       </c>
       <c r="Y40" t="n">
-        <v>589.0426883159004</v>
+        <v>589.0426883159006</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1777.009694346054</v>
+        <v>1469.388992067319</v>
       </c>
       <c r="C41" t="n">
-        <v>1455.108844448371</v>
+        <v>1147.488142169636</v>
       </c>
       <c r="D41" t="n">
-        <v>1143.904812884348</v>
+        <v>836.2841106056133</v>
       </c>
       <c r="E41" t="n">
-        <v>805.1782273288313</v>
+        <v>497.557525050097</v>
       </c>
       <c r="F41" t="n">
-        <v>441.2539895819516</v>
+        <v>497.557525050097</v>
       </c>
       <c r="G41" t="n">
-        <v>71.10158821569499</v>
+        <v>127.4051236838406</v>
       </c>
       <c r="H41" t="n">
         <v>71.10158821569499</v>
@@ -7411,52 +7411,52 @@
         <v>71.10158821569499</v>
       </c>
       <c r="J41" t="n">
-        <v>249.2363626397091</v>
+        <v>249.2363626397092</v>
       </c>
       <c r="K41" t="n">
-        <v>636.9590170723841</v>
+        <v>636.9590170723837</v>
       </c>
       <c r="L41" t="n">
-        <v>1170.239882220687</v>
+        <v>1170.239882220686</v>
       </c>
       <c r="M41" t="n">
-        <v>1780.224142393353</v>
+        <v>1780.224142393352</v>
       </c>
       <c r="N41" t="n">
-        <v>2385.44658806871</v>
+        <v>2385.446588068709</v>
       </c>
       <c r="O41" t="n">
-        <v>2911.753343601289</v>
+        <v>2911.753343601288</v>
       </c>
       <c r="P41" t="n">
         <v>3323.269600003673</v>
       </c>
       <c r="Q41" t="n">
-        <v>3555.07941078475</v>
+        <v>3555.079410784749</v>
       </c>
       <c r="R41" t="n">
-        <v>3555.07941078475</v>
+        <v>3555.079410784749</v>
       </c>
       <c r="S41" t="n">
-        <v>3555.07941078475</v>
+        <v>3443.048283391982</v>
       </c>
       <c r="T41" t="n">
-        <v>3555.07941078475</v>
+        <v>3274.757268912131</v>
       </c>
       <c r="U41" t="n">
-        <v>3348.439271640995</v>
+        <v>3068.117129768377</v>
       </c>
       <c r="V41" t="n">
-        <v>3091.73661174627</v>
+        <v>2784.115909467535</v>
       </c>
       <c r="W41" t="n">
-        <v>2786.029623518884</v>
+        <v>2478.408921240149</v>
       </c>
       <c r="X41" t="n">
-        <v>2459.625532300532</v>
+        <v>2152.004830021797</v>
       </c>
       <c r="Y41" t="n">
-        <v>2116.547867367448</v>
+        <v>1808.927165088713</v>
       </c>
     </row>
     <row r="42">
@@ -7496,10 +7496,10 @@
         <v>502.2386301474696</v>
       </c>
       <c r="L42" t="n">
-        <v>992.2209905094544</v>
+        <v>625.0890486590298</v>
       </c>
       <c r="M42" t="n">
-        <v>1313.526314340543</v>
+        <v>838.9773637404246</v>
       </c>
       <c r="N42" t="n">
         <v>1494.959119715748</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>384.0307607679169</v>
+        <v>371.9579472287861</v>
       </c>
       <c r="C43" t="n">
-        <v>384.0307607679169</v>
+        <v>250.0834313436072</v>
       </c>
       <c r="D43" t="n">
-        <v>280.9757883983091</v>
+        <v>250.0834313436072</v>
       </c>
       <c r="E43" t="n">
-        <v>180.1243618586439</v>
+        <v>250.0834313436072</v>
       </c>
       <c r="F43" t="n">
-        <v>80.29608140346137</v>
+        <v>150.2551508884249</v>
       </c>
       <c r="G43" t="n">
-        <v>71.10158821569499</v>
+        <v>150.2551508884249</v>
       </c>
       <c r="H43" t="n">
-        <v>71.10158821569499</v>
+        <v>150.2551508884249</v>
       </c>
       <c r="I43" t="n">
         <v>71.10158821569499</v>
       </c>
       <c r="J43" t="n">
-        <v>95.78254177084364</v>
+        <v>95.78254177084381</v>
       </c>
       <c r="K43" t="n">
-        <v>236.5051328463073</v>
+        <v>236.5051328463077</v>
       </c>
       <c r="L43" t="n">
-        <v>459.2088761001174</v>
+        <v>459.2088761001179</v>
       </c>
       <c r="M43" t="n">
-        <v>701.9005181858388</v>
+        <v>701.9005181858395</v>
       </c>
       <c r="N43" t="n">
-        <v>945.3528646184247</v>
+        <v>945.3528646184255</v>
       </c>
       <c r="O43" t="n">
-        <v>1157.725322568256</v>
+        <v>1157.725322568257</v>
       </c>
       <c r="P43" t="n">
-        <v>1322.583080938142</v>
+        <v>1322.583080938143</v>
       </c>
       <c r="Q43" t="n">
-        <v>1367.477451303877</v>
+        <v>1367.477451303878</v>
       </c>
       <c r="R43" t="n">
-        <v>1367.477451303877</v>
+        <v>1342.777657020691</v>
       </c>
       <c r="S43" t="n">
-        <v>1367.477451303877</v>
+        <v>1181.411821931569</v>
       </c>
       <c r="T43" t="n">
-        <v>1188.6678808814</v>
+        <v>1002.602251509093</v>
       </c>
       <c r="U43" t="n">
-        <v>1188.6678808814</v>
+        <v>760.5086522472342</v>
       </c>
       <c r="V43" t="n">
-        <v>981.0450597182414</v>
+        <v>552.8858310840753</v>
       </c>
       <c r="W43" t="n">
-        <v>738.6895567240086</v>
+        <v>552.8858310840753</v>
       </c>
       <c r="X43" t="n">
-        <v>557.7616728687192</v>
+        <v>371.9579472287861</v>
       </c>
       <c r="Y43" t="n">
-        <v>384.0307607679169</v>
+        <v>371.9579472287861</v>
       </c>
     </row>
     <row r="44">
@@ -7624,49 +7624,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1581.420119460086</v>
+        <v>2126.964445092542</v>
       </c>
       <c r="C44" t="n">
-        <v>1259.519269562402</v>
+        <v>1805.063595194859</v>
       </c>
       <c r="D44" t="n">
-        <v>948.3152379983794</v>
+        <v>1493.859563630836</v>
       </c>
       <c r="E44" t="n">
-        <v>609.5886524428631</v>
+        <v>1155.13297807532</v>
       </c>
       <c r="F44" t="n">
-        <v>245.6644146959836</v>
+        <v>791.2087403284404</v>
       </c>
       <c r="G44" t="n">
-        <v>71.10158821569499</v>
+        <v>421.0563389621839</v>
       </c>
       <c r="H44" t="n">
-        <v>71.10158821569499</v>
+        <v>148.6015576700972</v>
       </c>
       <c r="I44" t="n">
-        <v>71.10158821569499</v>
+        <v>71.101588215695</v>
       </c>
       <c r="J44" t="n">
-        <v>249.2363626397091</v>
+        <v>249.2363626397093</v>
       </c>
       <c r="K44" t="n">
-        <v>636.9590170723836</v>
+        <v>636.959017072384</v>
       </c>
       <c r="L44" t="n">
-        <v>1170.239882220686</v>
+        <v>1170.239882220687</v>
       </c>
       <c r="M44" t="n">
-        <v>1780.224142393352</v>
+        <v>1780.224142393353</v>
       </c>
       <c r="N44" t="n">
-        <v>2385.446588068709</v>
+        <v>2385.44658806871</v>
       </c>
       <c r="O44" t="n">
-        <v>2911.753343601288</v>
+        <v>2911.753343601289</v>
       </c>
       <c r="P44" t="n">
-        <v>3323.269600003673</v>
+        <v>3323.269600003674</v>
       </c>
       <c r="Q44" t="n">
         <v>3555.07941078475</v>
@@ -7678,22 +7678,22 @@
         <v>3555.07941078475</v>
       </c>
       <c r="T44" t="n">
-        <v>3386.788396304898</v>
+        <v>3441.691362492758</v>
       </c>
       <c r="U44" t="n">
-        <v>3180.148257161144</v>
+        <v>3441.691362492758</v>
       </c>
       <c r="V44" t="n">
-        <v>2896.147036860301</v>
+        <v>3441.691362492758</v>
       </c>
       <c r="W44" t="n">
-        <v>2590.440048632915</v>
+        <v>3135.984374265372</v>
       </c>
       <c r="X44" t="n">
-        <v>2264.035957414563</v>
+        <v>2809.58028304702</v>
       </c>
       <c r="Y44" t="n">
-        <v>1920.958292481479</v>
+        <v>2466.502618113936</v>
       </c>
     </row>
     <row r="45">
@@ -7724,7 +7724,7 @@
         <v>119.3328447905925</v>
       </c>
       <c r="I45" t="n">
-        <v>71.10158821569499</v>
+        <v>71.101588215695</v>
       </c>
       <c r="J45" t="n">
         <v>183.5040598342603</v>
@@ -7733,16 +7733,16 @@
         <v>502.2386301474696</v>
       </c>
       <c r="L45" t="n">
-        <v>920.4136755700623</v>
+        <v>992.2209905094544</v>
       </c>
       <c r="M45" t="n">
-        <v>1544.179200777925</v>
+        <v>1615.986515717317</v>
       </c>
       <c r="N45" t="n">
-        <v>2200.160956753248</v>
+        <v>1797.419321092522</v>
       </c>
       <c r="O45" t="n">
-        <v>2343.916732697218</v>
+        <v>2028.63859174368</v>
       </c>
       <c r="P45" t="n">
         <v>2439.960350382057</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>161.499210272226</v>
+        <v>71.101588215695</v>
       </c>
       <c r="C46" t="n">
-        <v>161.499210272226</v>
+        <v>71.101588215695</v>
       </c>
       <c r="D46" t="n">
-        <v>161.499210272226</v>
+        <v>71.101588215695</v>
       </c>
       <c r="E46" t="n">
-        <v>161.499210272226</v>
+        <v>71.101588215695</v>
       </c>
       <c r="F46" t="n">
-        <v>161.499210272226</v>
+        <v>71.101588215695</v>
       </c>
       <c r="G46" t="n">
-        <v>71.10158821569499</v>
+        <v>71.101588215695</v>
       </c>
       <c r="H46" t="n">
-        <v>71.10158821569499</v>
+        <v>71.101588215695</v>
       </c>
       <c r="I46" t="n">
-        <v>71.10158821569499</v>
+        <v>71.101588215695</v>
       </c>
       <c r="J46" t="n">
-        <v>95.78254177084369</v>
+        <v>95.78254177084382</v>
       </c>
       <c r="K46" t="n">
-        <v>236.5051328463074</v>
+        <v>236.5051328463077</v>
       </c>
       <c r="L46" t="n">
-        <v>459.2088761001175</v>
+        <v>459.2088761001179</v>
       </c>
       <c r="M46" t="n">
-        <v>701.900518185839</v>
+        <v>701.9005181858395</v>
       </c>
       <c r="N46" t="n">
-        <v>945.352864618425</v>
+        <v>945.3528646184255</v>
       </c>
       <c r="O46" t="n">
-        <v>1157.725322568256</v>
+        <v>1157.725322568257</v>
       </c>
       <c r="P46" t="n">
         <v>1322.583080938143</v>
       </c>
       <c r="Q46" t="n">
-        <v>1367.477451303877</v>
+        <v>1367.477451303878</v>
       </c>
       <c r="R46" t="n">
-        <v>1367.477451303877</v>
+        <v>1367.477451303878</v>
       </c>
       <c r="S46" t="n">
-        <v>1206.111616214755</v>
+        <v>1206.111616214756</v>
       </c>
       <c r="T46" t="n">
-        <v>1027.302045792279</v>
+        <v>1027.30204579228</v>
       </c>
       <c r="U46" t="n">
-        <v>785.2084465304198</v>
+        <v>875.7387083291777</v>
       </c>
       <c r="V46" t="n">
-        <v>577.5856253672608</v>
+        <v>668.1158871660189</v>
       </c>
       <c r="W46" t="n">
-        <v>335.2301223730282</v>
+        <v>425.7603841717863</v>
       </c>
       <c r="X46" t="n">
-        <v>335.2301223730282</v>
+        <v>244.832500316497</v>
       </c>
       <c r="Y46" t="n">
-        <v>161.499210272226</v>
+        <v>71.101588215695</v>
       </c>
     </row>
   </sheetData>
@@ -8066,19 +8066,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N3" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8303,16 +8303,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N6" t="n">
-        <v>371.3463732493024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8549,7 +8549,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>247.3552705420797</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8774,19 +8774,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>298.3077039505379</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>12.94741371390268</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9008,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>244.3101723231794</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9020,10 +9020,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>168.9106216863869</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9175,7 +9175,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9254,13 +9254,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>65.3249903774248</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>298.307703950538</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9482,22 +9482,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>160.1897088239655</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>168.9106216863869</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9725,7 +9725,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>160.1897088239658</v>
+        <v>160.1897088239655</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9962,13 +9962,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>160.1897088239658</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>88.34696435069489</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10199,13 +10199,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>160.1897088239658</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>88.34696435069489</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10430,22 +10430,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>168.9106216863871</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>160.1897088239658</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928326</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10673,13 +10673,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>160.1897088239658</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>88.3469643506948</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10910,13 +10910,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>160.1897088239655</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>88.34696435069489</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11144,13 +11144,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>160.1897088239655</v>
+        <v>51.68767978387129</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11381,19 +11381,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>298.3077039505379</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>88.3469643506948</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1.151079231931362e-12</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25639,16 +25639,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>360.2849953694107</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>269.730233479166</v>
+        <v>213.9897333657017</v>
       </c>
       <c r="I41" t="n">
-        <v>76.72496975985833</v>
+        <v>76.72496975985815</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>110.9108161188393</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>166.608104335053</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>27.02557480205661</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>133.2409298096367</v>
+        <v>133.2409298096365</v>
       </c>
       <c r="C43" t="n">
-        <v>120.6557707263272</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>102.0244226459116</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>99.8429122742684</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>111.2832592895243</v>
+        <v>120.3858075454128</v>
       </c>
       <c r="H43" t="n">
-        <v>106.6196605983319</v>
+        <v>106.6196605983317</v>
       </c>
       <c r="I43" t="n">
-        <v>78.36202704600274</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>85.10375331463581</v>
+        <v>60.65095697428076</v>
       </c>
       <c r="S43" t="n">
-        <v>159.7521767382307</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>239.6726632692406</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>239.9319479642902</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>171.993602979794</v>
       </c>
     </row>
     <row r="44">
@@ -25879,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>193.6336791371082</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>269.7302334791659</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>76.72496975985827</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>110.9108161188392</v>
+        <v>110.9108161188391</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>54.35393652598056</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>204.5737377523165</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>281.1612080978341</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>133.2409298096366</v>
+        <v>133.2409298096365</v>
       </c>
       <c r="C46" t="n">
-        <v>120.6557707263272</v>
+        <v>120.6557707263271</v>
       </c>
       <c r="D46" t="n">
-        <v>102.0244226459117</v>
+        <v>102.0244226459116</v>
       </c>
       <c r="E46" t="n">
-        <v>99.84291227426851</v>
+        <v>99.8429122742684</v>
       </c>
       <c r="F46" t="n">
-        <v>98.82999765063059</v>
+        <v>98.82999765063047</v>
       </c>
       <c r="G46" t="n">
-        <v>30.89216170944722</v>
+        <v>120.3858075454128</v>
       </c>
       <c r="H46" t="n">
-        <v>106.6196605983318</v>
+        <v>106.6196605983317</v>
       </c>
       <c r="I46" t="n">
-        <v>78.36202704600268</v>
+        <v>78.36202704600257</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>85.10375331463575</v>
+        <v>85.10375331463564</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>89.62495918076928</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>179.1186050167365</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>640883.7461838962</v>
+        <v>640883.7461838966</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>640883.7461838964</v>
+        <v>640883.7461838966</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>738937.5928778552</v>
+      </c>
+      <c r="C2" t="n">
         <v>738937.5928778549</v>
-      </c>
-      <c r="C2" t="n">
-        <v>738937.5928778551</v>
       </c>
       <c r="D2" t="n">
         <v>738937.5928778552</v>
       </c>
       <c r="E2" t="n">
-        <v>738937.5928778547</v>
+        <v>738937.5928778548</v>
       </c>
       <c r="F2" t="n">
         <v>738937.5928778547</v>
       </c>
       <c r="G2" t="n">
+        <v>738937.5928778548</v>
+      </c>
+      <c r="H2" t="n">
         <v>738937.5928778545</v>
-      </c>
-      <c r="H2" t="n">
-        <v>738937.5928778547</v>
       </c>
       <c r="I2" t="n">
         <v>738937.5928778546</v>
       </c>
       <c r="J2" t="n">
-        <v>738937.5928778544</v>
+        <v>738937.5928778548</v>
       </c>
       <c r="K2" t="n">
-        <v>738937.5928778544</v>
+        <v>738937.5928778547</v>
       </c>
       <c r="L2" t="n">
-        <v>738937.5928778544</v>
+        <v>738937.5928778547</v>
       </c>
       <c r="M2" t="n">
+        <v>738937.5928778547</v>
+      </c>
+      <c r="N2" t="n">
         <v>738937.5928778546</v>
       </c>
-      <c r="N2" t="n">
-        <v>738937.5928778549</v>
-      </c>
       <c r="O2" t="n">
+        <v>669950.6652765697</v>
+      </c>
+      <c r="P2" t="n">
         <v>669950.6652765695</v>
-      </c>
-      <c r="P2" t="n">
-        <v>669950.6652765694</v>
       </c>
     </row>
     <row r="3">
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>135052.7668166786</v>
+        <v>135052.7668166787</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>161423.2775258326</v>
+        <v>161423.2775258325</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>37272.84029784053</v>
+        <v>37272.84029784071</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26447,7 +26447,7 @@
         <v>100069.7940984993</v>
       </c>
       <c r="L4" t="n">
-        <v>100069.7940984993</v>
+        <v>100069.7940984992</v>
       </c>
       <c r="M4" t="n">
         <v>100069.7940984993</v>
@@ -26456,10 +26456,10 @@
         <v>100069.7940984993</v>
       </c>
       <c r="O4" t="n">
-        <v>56212.12999981038</v>
+        <v>56212.12999981056</v>
       </c>
       <c r="P4" t="n">
-        <v>56212.12999981044</v>
+        <v>56212.12999981056</v>
       </c>
     </row>
     <row r="5">
@@ -26490,16 +26490,16 @@
         <v>73862.46925788873</v>
       </c>
       <c r="I5" t="n">
-        <v>73862.46925788872</v>
+        <v>73862.46925788873</v>
       </c>
       <c r="J5" t="n">
-        <v>73862.46925788872</v>
+        <v>73862.46925788873</v>
       </c>
       <c r="K5" t="n">
-        <v>73862.46925788872</v>
+        <v>73862.46925788873</v>
       </c>
       <c r="L5" t="n">
-        <v>73862.46925788872</v>
+        <v>73862.46925788873</v>
       </c>
       <c r="M5" t="n">
         <v>73862.46925788873</v>
@@ -26511,7 +26511,7 @@
         <v>70213.87634770382</v>
       </c>
       <c r="P5" t="n">
-        <v>70213.87634770382</v>
+        <v>70213.87634770383</v>
       </c>
     </row>
     <row r="6">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>322394.2538787437</v>
+        <v>322394.253878744</v>
       </c>
       <c r="C6" t="n">
         <v>403163.6854102915</v>
@@ -26533,37 +26533,37 @@
         <v>-152207.9706971761</v>
       </c>
       <c r="F6" t="n">
+        <v>565005.3295214666</v>
+      </c>
+      <c r="G6" t="n">
         <v>565005.3295214667</v>
       </c>
-      <c r="G6" t="n">
-        <v>565005.3295214665</v>
-      </c>
       <c r="H6" t="n">
-        <v>565005.3295214667</v>
+        <v>565005.3295214666</v>
       </c>
       <c r="I6" t="n">
         <v>565005.3295214666</v>
       </c>
       <c r="J6" t="n">
-        <v>429952.5627047876</v>
+        <v>429952.5627047881</v>
       </c>
       <c r="K6" t="n">
-        <v>565005.3295214664</v>
+        <v>565005.3295214666</v>
       </c>
       <c r="L6" t="n">
-        <v>565005.3295214664</v>
+        <v>565005.3295214669</v>
       </c>
       <c r="M6" t="n">
-        <v>403582.0519956341</v>
+        <v>403582.0519956342</v>
       </c>
       <c r="N6" t="n">
-        <v>565005.329521467</v>
+        <v>565005.3295214666</v>
       </c>
       <c r="O6" t="n">
-        <v>504335.5150867347</v>
+        <v>506060.1882767666</v>
       </c>
       <c r="P6" t="n">
-        <v>541608.355384575</v>
+        <v>543333.0285746071</v>
       </c>
     </row>
   </sheetData>
@@ -26694,40 +26694,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="F2" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="G2" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="H2" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="I2" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="J2" t="n">
+        <v>89.99103027196553</v>
+      </c>
+      <c r="K2" t="n">
+        <v>89.99103027196553</v>
+      </c>
+      <c r="L2" t="n">
+        <v>89.99103027196541</v>
+      </c>
+      <c r="M2" t="n">
         <v>89.9910302719655</v>
       </c>
-      <c r="K2" t="n">
-        <v>89.99103027196546</v>
-      </c>
-      <c r="L2" t="n">
-        <v>89.99103027196546</v>
-      </c>
-      <c r="M2" t="n">
-        <v>89.99103027196546</v>
-      </c>
       <c r="N2" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="O2" t="n">
-        <v>46.59105037230059</v>
+        <v>46.59105037230077</v>
       </c>
       <c r="P2" t="n">
-        <v>46.59105037230066</v>
+        <v>46.59105037230077</v>
       </c>
     </row>
     <row r="3">
@@ -26758,19 +26758,19 @@
         <v>562.3764353223249</v>
       </c>
       <c r="I3" t="n">
-        <v>562.3764353223248</v>
+        <v>562.3764353223249</v>
       </c>
       <c r="J3" t="n">
-        <v>562.3764353223248</v>
+        <v>562.3764353223249</v>
       </c>
       <c r="K3" t="n">
-        <v>562.3764353223248</v>
+        <v>562.3764353223249</v>
       </c>
       <c r="L3" t="n">
-        <v>562.3764353223248</v>
+        <v>562.3764353223249</v>
       </c>
       <c r="M3" t="n">
-        <v>562.3764353223248</v>
+        <v>562.3764353223249</v>
       </c>
       <c r="N3" t="n">
         <v>562.3764353223249</v>
@@ -26798,10 +26798,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>888.7698526961874</v>
+        <v>888.7698526961873</v>
       </c>
       <c r="F4" t="n">
-        <v>888.7698526961874</v>
+        <v>888.7698526961873</v>
       </c>
       <c r="G4" t="n">
         <v>888.7698526961873</v>
@@ -26810,28 +26810,28 @@
         <v>888.7698526961873</v>
       </c>
       <c r="I4" t="n">
-        <v>888.7698526961872</v>
+        <v>888.7698526961873</v>
       </c>
       <c r="J4" t="n">
-        <v>888.7698526961872</v>
+        <v>888.7698526961873</v>
       </c>
       <c r="K4" t="n">
-        <v>888.7698526961872</v>
+        <v>888.7698526961873</v>
       </c>
       <c r="L4" t="n">
-        <v>888.7698526961872</v>
+        <v>888.7698526961874</v>
       </c>
       <c r="M4" t="n">
-        <v>888.7698526961873</v>
+        <v>888.7698526961874</v>
       </c>
       <c r="N4" t="n">
         <v>888.7698526961873</v>
       </c>
       <c r="O4" t="n">
-        <v>888.7698526961874</v>
+        <v>888.7698526961873</v>
       </c>
       <c r="P4" t="n">
-        <v>888.7698526961874</v>
+        <v>888.7698526961875</v>
       </c>
     </row>
   </sheetData>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26928,10 +26928,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>89.99103027196553</v>
+        <v>89.99103027196558</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>46.59105037230066</v>
+        <v>46.59105037230088</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>647.7555638185283</v>
+        <v>647.7555638185282</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>647.7555638185285</v>
+        <v>647.7555638185282</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27165,10 +27165,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>89.99103027196553</v>
+        <v>89.99103027196558</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>647.7555638185283</v>
+        <v>647.7555638185282</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>317.9429279877956</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>259.542103988905</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27460,10 +27460,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>17.74777975671506</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>29.62878828644581</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27475,10 +27475,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,10 +27505,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -27523,7 +27523,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27548,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G4" t="n">
         <v>167.9909793584588</v>
@@ -27557,13 +27557,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>214.5672278460424</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
-        <v>301.251446211517</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -27694,19 +27694,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>117.2220797075721</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -27754,16 +27754,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>60.50207587874957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27852,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>199.2644903309074</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>345.7144348824455</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27931,25 +27931,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -27982,13 +27982,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>118.5595675326574</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -27997,10 +27997,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>60.50207587874957</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28022,7 +28022,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>14.95552117266971</v>
+        <v>37.22501299855256</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -28037,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="C11" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="D11" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="E11" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="F11" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="G11" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="H11" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="I11" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>7.853524954954707</v>
       </c>
       <c r="S11" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="T11" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="U11" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="V11" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="W11" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="X11" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="Y11" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196553</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="C13" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="D13" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="E13" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="F13" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="G13" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="H13" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="I13" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="J13" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="K13" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="L13" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="M13" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="N13" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="O13" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="P13" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="Q13" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="R13" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="S13" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="T13" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="U13" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="V13" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="W13" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="X13" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="Y13" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196553</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="C14" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="D14" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="E14" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="F14" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="G14" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="H14" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="I14" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>7.853524954954707</v>
       </c>
       <c r="S14" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="T14" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="U14" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="V14" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="W14" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="X14" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="Y14" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="C16" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="D16" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="E16" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="F16" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="G16" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="H16" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="I16" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="J16" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="K16" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="L16" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="M16" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="N16" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="O16" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="P16" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="Q16" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="R16" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="S16" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="T16" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="U16" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="V16" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="W16" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="X16" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="Y16" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
     </row>
     <row r="17">
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="C17" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="D17" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="E17" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="F17" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="G17" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="H17" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="I17" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28611,28 +28611,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>7.853524954954707</v>
+        <v>7.853524954953789</v>
       </c>
       <c r="S17" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="T17" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="U17" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="V17" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="W17" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="X17" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="Y17" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="C19" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="D19" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="E19" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="F19" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="G19" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="H19" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="I19" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="J19" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="K19" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="L19" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="M19" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="N19" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="O19" t="n">
-        <v>89.99103027196557</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="P19" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="Q19" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="R19" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="S19" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="T19" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="U19" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="V19" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="W19" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="X19" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="Y19" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
     </row>
     <row r="20">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="C20" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="D20" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="E20" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="F20" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="G20" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="H20" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="I20" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>7.853524954954707</v>
       </c>
       <c r="S20" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="T20" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="U20" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="V20" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="W20" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="X20" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="Y20" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="C22" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="D22" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="E22" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="F22" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="G22" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="H22" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="I22" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="J22" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="K22" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="L22" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="M22" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="N22" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="O22" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="P22" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="Q22" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196588</v>
       </c>
       <c r="R22" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="S22" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="T22" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="U22" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="V22" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="W22" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="X22" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="Y22" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196544</v>
       </c>
     </row>
     <row r="23">
@@ -29037,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="C23" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="D23" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="E23" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="F23" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="G23" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="H23" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="I23" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29085,28 +29085,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>7.853524954954736</v>
+        <v>7.853524954954707</v>
       </c>
       <c r="S23" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="T23" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="U23" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="V23" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="W23" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="X23" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="Y23" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="C25" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="D25" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="E25" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="F25" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="G25" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="H25" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="I25" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="J25" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="K25" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="L25" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="M25" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="N25" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="O25" t="n">
-        <v>89.99103027196605</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="P25" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="Q25" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="R25" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="S25" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="T25" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="U25" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="V25" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="W25" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="X25" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="Y25" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
     </row>
     <row r="26">
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="C26" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="D26" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="E26" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="F26" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="G26" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="H26" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="I26" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29322,28 +29322,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>7.853524954954736</v>
+        <v>7.853524954954707</v>
       </c>
       <c r="S26" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="T26" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="U26" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="V26" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="W26" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="X26" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="Y26" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196553</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="C28" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="D28" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="E28" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="F28" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="G28" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="H28" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="I28" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="J28" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="K28" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="L28" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="M28" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="N28" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="O28" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="P28" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="Q28" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="R28" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="S28" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="T28" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="U28" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="V28" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="W28" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="X28" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="Y28" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196553</v>
       </c>
     </row>
     <row r="29">
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="C29" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="D29" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="E29" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="F29" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="G29" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="H29" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="I29" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29559,28 +29559,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>7.853524954954736</v>
+        <v>7.853524954954707</v>
       </c>
       <c r="S29" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="T29" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="U29" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="V29" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="W29" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="X29" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="Y29" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="C31" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="D31" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="E31" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="F31" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="G31" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="H31" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="I31" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="J31" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="K31" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="L31" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="M31" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="N31" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="O31" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="P31" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="Q31" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="R31" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="S31" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="T31" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="U31" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="V31" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="W31" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="X31" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="Y31" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
     </row>
     <row r="32">
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="C32" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="D32" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="E32" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="F32" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="G32" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="H32" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="I32" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29796,28 +29796,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>7.853524954954736</v>
+        <v>7.853524954954707</v>
       </c>
       <c r="S32" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="T32" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="U32" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="V32" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="W32" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="X32" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="Y32" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="C34" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="D34" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="E34" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="F34" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="G34" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="H34" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="I34" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="J34" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="K34" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="L34" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="M34" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="N34" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="O34" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="P34" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="Q34" t="n">
-        <v>89.99103027196612</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="R34" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="S34" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="T34" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="U34" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="V34" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="W34" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="X34" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="Y34" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
     </row>
     <row r="35">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="C35" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="D35" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="E35" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="F35" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="G35" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="H35" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="I35" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30033,28 +30033,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>7.853524954954736</v>
+        <v>7.853524954954707</v>
       </c>
       <c r="S35" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="T35" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="U35" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="V35" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="W35" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="X35" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="Y35" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="C37" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="D37" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="E37" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="F37" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="G37" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="H37" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="I37" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="J37" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="K37" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="L37" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="M37" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="N37" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="O37" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="P37" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="Q37" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196473</v>
       </c>
       <c r="R37" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="S37" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="T37" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="U37" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="V37" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="W37" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="X37" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="Y37" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719655</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="C38" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="D38" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="E38" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="F38" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="G38" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="H38" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="I38" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>7.853524954954707</v>
       </c>
       <c r="S38" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="T38" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="U38" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="V38" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="W38" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="X38" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="Y38" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="C40" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="D40" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="E40" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="F40" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="G40" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="H40" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="I40" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="J40" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="K40" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="L40" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="M40" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="N40" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="O40" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="P40" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="Q40" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="R40" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="S40" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="T40" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="U40" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="V40" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="W40" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="X40" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="Y40" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
     </row>
     <row r="41">
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.59105037230059</v>
+        <v>46.59105037230077</v>
       </c>
       <c r="C41" t="n">
-        <v>46.59105037230059</v>
+        <v>46.59105037230077</v>
       </c>
       <c r="D41" t="n">
-        <v>46.59105037230059</v>
+        <v>46.59105037230077</v>
       </c>
       <c r="E41" t="n">
-        <v>46.59105037230059</v>
+        <v>46.59105037230077</v>
       </c>
       <c r="F41" t="n">
-        <v>46.59105037230059</v>
+        <v>46.59105037230077</v>
       </c>
       <c r="G41" t="n">
-        <v>46.59105037230059</v>
+        <v>46.59105037230077</v>
       </c>
       <c r="H41" t="n">
-        <v>46.59105037230059</v>
+        <v>46.59105037230077</v>
       </c>
       <c r="I41" t="n">
-        <v>46.59105037230059</v>
+        <v>46.59105037230077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>7.853524954954707</v>
       </c>
       <c r="S41" t="n">
-        <v>46.59105037230059</v>
+        <v>46.59105037230077</v>
       </c>
       <c r="T41" t="n">
-        <v>46.59105037230059</v>
+        <v>46.59105037230077</v>
       </c>
       <c r="U41" t="n">
-        <v>46.59105037230059</v>
+        <v>46.59105037230077</v>
       </c>
       <c r="V41" t="n">
-        <v>46.59105037230059</v>
+        <v>46.59105037230077</v>
       </c>
       <c r="W41" t="n">
-        <v>46.59105037230059</v>
+        <v>46.59105037230077</v>
       </c>
       <c r="X41" t="n">
-        <v>46.59105037230059</v>
+        <v>46.59105037230077</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.59105037230059</v>
+        <v>46.59105037230077</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.59105037230059</v>
+        <v>46.59105037230077</v>
       </c>
       <c r="C43" t="n">
-        <v>46.59105037230059</v>
+        <v>46.59105037230077</v>
       </c>
       <c r="D43" t="n">
-        <v>46.59105037230059</v>
+        <v>46.59105037230077</v>
       </c>
       <c r="E43" t="n">
-        <v>46.59105037230059</v>
+        <v>46.59105037230077</v>
       </c>
       <c r="F43" t="n">
-        <v>46.59105037230059</v>
+        <v>46.59105037230077</v>
       </c>
       <c r="G43" t="n">
-        <v>46.59105037230059</v>
+        <v>46.59105037230077</v>
       </c>
       <c r="H43" t="n">
-        <v>46.59105037230059</v>
+        <v>46.59105037230077</v>
       </c>
       <c r="I43" t="n">
-        <v>46.59105037230059</v>
+        <v>46.59105037230077</v>
       </c>
       <c r="J43" t="n">
-        <v>46.59105037230059</v>
+        <v>46.59105037230077</v>
       </c>
       <c r="K43" t="n">
-        <v>46.59105037230059</v>
+        <v>46.59105037230077</v>
       </c>
       <c r="L43" t="n">
-        <v>46.59105037230059</v>
+        <v>46.59105037230077</v>
       </c>
       <c r="M43" t="n">
-        <v>46.59105037230059</v>
+        <v>46.59105037230077</v>
       </c>
       <c r="N43" t="n">
-        <v>46.59105037230059</v>
+        <v>46.59105037230077</v>
       </c>
       <c r="O43" t="n">
-        <v>46.59105037230059</v>
+        <v>46.59105037230077</v>
       </c>
       <c r="P43" t="n">
-        <v>46.59105037230059</v>
+        <v>46.59105037230077</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.59105037230059</v>
+        <v>46.59105037230077</v>
       </c>
       <c r="R43" t="n">
-        <v>46.59105037230059</v>
+        <v>46.59105037230077</v>
       </c>
       <c r="S43" t="n">
-        <v>46.59105037230059</v>
+        <v>46.59105037230077</v>
       </c>
       <c r="T43" t="n">
-        <v>46.59105037230059</v>
+        <v>46.59105037230077</v>
       </c>
       <c r="U43" t="n">
-        <v>46.59105037230059</v>
+        <v>46.59105037230077</v>
       </c>
       <c r="V43" t="n">
-        <v>46.59105037230059</v>
+        <v>46.59105037230077</v>
       </c>
       <c r="W43" t="n">
-        <v>46.59105037230059</v>
+        <v>46.59105037230077</v>
       </c>
       <c r="X43" t="n">
-        <v>46.59105037230059</v>
+        <v>46.59105037230077</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.59105037230059</v>
+        <v>46.59105037230077</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.59105037230066</v>
+        <v>46.59105037230077</v>
       </c>
       <c r="C44" t="n">
-        <v>46.59105037230066</v>
+        <v>46.59105037230077</v>
       </c>
       <c r="D44" t="n">
-        <v>46.59105037230066</v>
+        <v>46.59105037230077</v>
       </c>
       <c r="E44" t="n">
-        <v>46.59105037230066</v>
+        <v>46.59105037230077</v>
       </c>
       <c r="F44" t="n">
-        <v>46.59105037230066</v>
+        <v>46.59105037230077</v>
       </c>
       <c r="G44" t="n">
-        <v>46.59105037230066</v>
+        <v>46.59105037230077</v>
       </c>
       <c r="H44" t="n">
-        <v>46.59105037230066</v>
+        <v>46.59105037230077</v>
       </c>
       <c r="I44" t="n">
-        <v>46.59105037230066</v>
+        <v>46.59105037230077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>7.853524954954707</v>
       </c>
       <c r="S44" t="n">
-        <v>46.59105037230066</v>
+        <v>46.59105037230077</v>
       </c>
       <c r="T44" t="n">
-        <v>46.59105037230066</v>
+        <v>46.59105037230077</v>
       </c>
       <c r="U44" t="n">
-        <v>46.59105037230066</v>
+        <v>46.59105037230077</v>
       </c>
       <c r="V44" t="n">
-        <v>46.59105037230066</v>
+        <v>46.59105037230077</v>
       </c>
       <c r="W44" t="n">
-        <v>46.59105037230066</v>
+        <v>46.59105037230077</v>
       </c>
       <c r="X44" t="n">
-        <v>46.59105037230066</v>
+        <v>46.59105037230077</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.59105037230066</v>
+        <v>46.59105037230077</v>
       </c>
     </row>
     <row r="45">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.59105037230066</v>
+        <v>46.59105037230077</v>
       </c>
       <c r="C46" t="n">
-        <v>46.59105037230066</v>
+        <v>46.59105037230077</v>
       </c>
       <c r="D46" t="n">
-        <v>46.59105037230066</v>
+        <v>46.59105037230077</v>
       </c>
       <c r="E46" t="n">
-        <v>46.59105037230066</v>
+        <v>46.59105037230077</v>
       </c>
       <c r="F46" t="n">
-        <v>46.59105037230066</v>
+        <v>46.59105037230077</v>
       </c>
       <c r="G46" t="n">
-        <v>46.59105037230066</v>
+        <v>46.59105037230077</v>
       </c>
       <c r="H46" t="n">
-        <v>46.59105037230066</v>
+        <v>46.59105037230077</v>
       </c>
       <c r="I46" t="n">
-        <v>46.59105037230066</v>
+        <v>46.59105037230077</v>
       </c>
       <c r="J46" t="n">
-        <v>46.59105037230066</v>
+        <v>46.59105037230077</v>
       </c>
       <c r="K46" t="n">
-        <v>46.59105037230066</v>
+        <v>46.59105037230077</v>
       </c>
       <c r="L46" t="n">
-        <v>46.59105037230066</v>
+        <v>46.59105037230077</v>
       </c>
       <c r="M46" t="n">
-        <v>46.59105037230066</v>
+        <v>46.59105037230077</v>
       </c>
       <c r="N46" t="n">
-        <v>46.59105037230066</v>
+        <v>46.59105037230077</v>
       </c>
       <c r="O46" t="n">
-        <v>46.59105037230066</v>
+        <v>46.59105037230077</v>
       </c>
       <c r="P46" t="n">
-        <v>46.59105037230066</v>
+        <v>46.59105037230077</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.59105037230066</v>
+        <v>46.59105037230077</v>
       </c>
       <c r="R46" t="n">
-        <v>46.59105037230066</v>
+        <v>46.59105037230077</v>
       </c>
       <c r="S46" t="n">
-        <v>46.59105037230066</v>
+        <v>46.59105037230077</v>
       </c>
       <c r="T46" t="n">
-        <v>46.59105037230066</v>
+        <v>46.59105037230077</v>
       </c>
       <c r="U46" t="n">
-        <v>46.59105037230066</v>
+        <v>46.59105037230077</v>
       </c>
       <c r="V46" t="n">
-        <v>46.59105037230066</v>
+        <v>46.59105037230077</v>
       </c>
       <c r="W46" t="n">
-        <v>46.59105037230066</v>
+        <v>46.59105037230077</v>
       </c>
       <c r="X46" t="n">
-        <v>46.59105037230066</v>
+        <v>46.59105037230077</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.59105037230066</v>
+        <v>46.59105037230077</v>
       </c>
     </row>
   </sheetData>
@@ -32700,25 +32700,25 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.2608097902405</v>
+        <v>2.260809790240501</v>
       </c>
       <c r="H23" t="n">
         <v>23.15351826430053</v>
       </c>
       <c r="I23" t="n">
-        <v>87.15986943824696</v>
+        <v>87.15986943824699</v>
       </c>
       <c r="J23" t="n">
         <v>191.8834049344248</v>
       </c>
       <c r="K23" t="n">
-        <v>287.5834833553052</v>
+        <v>287.5834833553053</v>
       </c>
       <c r="L23" t="n">
-        <v>356.772740973378</v>
+        <v>356.7727409733781</v>
       </c>
       <c r="M23" t="n">
-        <v>396.9784170805675</v>
+        <v>396.9784170805676</v>
       </c>
       <c r="N23" t="n">
         <v>403.4019428970884</v>
@@ -32727,19 +32727,19 @@
         <v>380.9210155453844</v>
       </c>
       <c r="P23" t="n">
-        <v>325.1072738488219</v>
+        <v>325.107273848822</v>
       </c>
       <c r="Q23" t="n">
         <v>244.142023235834</v>
       </c>
       <c r="R23" t="n">
-        <v>142.0155929861949</v>
+        <v>142.015592986195</v>
       </c>
       <c r="S23" t="n">
-        <v>51.51820309510545</v>
+        <v>51.51820309510546</v>
       </c>
       <c r="T23" t="n">
-        <v>9.896694856777794</v>
+        <v>9.896694856777795</v>
       </c>
       <c r="U23" t="n">
         <v>0.18086478321924</v>
@@ -32779,13 +32779,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.209639879749906</v>
+        <v>1.209639879749907</v>
       </c>
       <c r="H24" t="n">
         <v>11.68257462811094</v>
       </c>
       <c r="I24" t="n">
-        <v>41.64768884226651</v>
+        <v>41.64768884226653</v>
       </c>
       <c r="J24" t="n">
         <v>114.2844414460208</v>
@@ -32800,28 +32800,28 @@
         <v>306.495157250667</v>
       </c>
       <c r="N24" t="n">
-        <v>314.6071720582881</v>
+        <v>314.6071720582882</v>
       </c>
       <c r="O24" t="n">
         <v>287.8040989333034</v>
       </c>
       <c r="P24" t="n">
-        <v>230.9881626515413</v>
+        <v>230.9881626515414</v>
       </c>
       <c r="Q24" t="n">
-        <v>154.4094695624617</v>
+        <v>154.4094695624618</v>
       </c>
       <c r="R24" t="n">
-        <v>75.10378130587578</v>
+        <v>75.1037813058758</v>
       </c>
       <c r="S24" t="n">
         <v>22.46853022254759</v>
       </c>
       <c r="T24" t="n">
-        <v>4.875697585483173</v>
+        <v>4.875697585483174</v>
       </c>
       <c r="U24" t="n">
-        <v>0.07958157103617808</v>
+        <v>0.07958157103617809</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,13 +32861,13 @@
         <v>1.014121440745176</v>
       </c>
       <c r="H25" t="n">
-        <v>9.016461536807116</v>
+        <v>9.016461536807117</v>
       </c>
       <c r="I25" t="n">
-        <v>30.49739750895493</v>
+        <v>30.49739750895494</v>
       </c>
       <c r="J25" t="n">
-        <v>71.69838586068393</v>
+        <v>71.69838586068394</v>
       </c>
       <c r="K25" t="n">
         <v>117.8224728429395</v>
@@ -32888,19 +32888,19 @@
         <v>122.6533786152165</v>
       </c>
       <c r="Q25" t="n">
-        <v>84.91884173367104</v>
+        <v>84.91884173367106</v>
       </c>
       <c r="R25" t="n">
-        <v>45.59858769023307</v>
+        <v>45.59858769023308</v>
       </c>
       <c r="S25" t="n">
         <v>17.67337092644092</v>
       </c>
       <c r="T25" t="n">
-        <v>4.333064337729386</v>
+        <v>4.333064337729387</v>
       </c>
       <c r="U25" t="n">
-        <v>0.05531571494973692</v>
+        <v>0.05531571494973694</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,25 +32937,25 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.2608097902405</v>
+        <v>2.260809790240501</v>
       </c>
       <c r="H26" t="n">
         <v>23.15351826430053</v>
       </c>
       <c r="I26" t="n">
-        <v>87.15986943824696</v>
+        <v>87.15986943824699</v>
       </c>
       <c r="J26" t="n">
         <v>191.8834049344248</v>
       </c>
       <c r="K26" t="n">
-        <v>287.5834833553052</v>
+        <v>287.5834833553053</v>
       </c>
       <c r="L26" t="n">
-        <v>356.772740973378</v>
+        <v>356.7727409733781</v>
       </c>
       <c r="M26" t="n">
-        <v>396.9784170805675</v>
+        <v>396.9784170805676</v>
       </c>
       <c r="N26" t="n">
         <v>403.4019428970884</v>
@@ -32964,19 +32964,19 @@
         <v>380.9210155453844</v>
       </c>
       <c r="P26" t="n">
-        <v>325.1072738488219</v>
+        <v>325.107273848822</v>
       </c>
       <c r="Q26" t="n">
         <v>244.142023235834</v>
       </c>
       <c r="R26" t="n">
-        <v>142.0155929861949</v>
+        <v>142.015592986195</v>
       </c>
       <c r="S26" t="n">
-        <v>51.51820309510545</v>
+        <v>51.51820309510546</v>
       </c>
       <c r="T26" t="n">
-        <v>9.896694856777794</v>
+        <v>9.896694856777795</v>
       </c>
       <c r="U26" t="n">
         <v>0.18086478321924</v>
@@ -33016,13 +33016,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.209639879749906</v>
+        <v>1.209639879749907</v>
       </c>
       <c r="H27" t="n">
         <v>11.68257462811094</v>
       </c>
       <c r="I27" t="n">
-        <v>41.64768884226651</v>
+        <v>41.64768884226653</v>
       </c>
       <c r="J27" t="n">
         <v>114.2844414460208</v>
@@ -33037,28 +33037,28 @@
         <v>306.495157250667</v>
       </c>
       <c r="N27" t="n">
-        <v>314.6071720582881</v>
+        <v>314.6071720582882</v>
       </c>
       <c r="O27" t="n">
         <v>287.8040989333034</v>
       </c>
       <c r="P27" t="n">
-        <v>230.9881626515413</v>
+        <v>230.9881626515414</v>
       </c>
       <c r="Q27" t="n">
-        <v>154.4094695624617</v>
+        <v>154.4094695624618</v>
       </c>
       <c r="R27" t="n">
-        <v>75.10378130587578</v>
+        <v>75.1037813058758</v>
       </c>
       <c r="S27" t="n">
         <v>22.46853022254759</v>
       </c>
       <c r="T27" t="n">
-        <v>4.875697585483173</v>
+        <v>4.875697585483174</v>
       </c>
       <c r="U27" t="n">
-        <v>0.07958157103617808</v>
+        <v>0.07958157103617809</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,13 +33098,13 @@
         <v>1.014121440745176</v>
       </c>
       <c r="H28" t="n">
-        <v>9.016461536807116</v>
+        <v>9.016461536807117</v>
       </c>
       <c r="I28" t="n">
-        <v>30.49739750895493</v>
+        <v>30.49739750895494</v>
       </c>
       <c r="J28" t="n">
-        <v>71.69838586068393</v>
+        <v>71.69838586068394</v>
       </c>
       <c r="K28" t="n">
         <v>117.8224728429395</v>
@@ -33125,19 +33125,19 @@
         <v>122.6533786152165</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.91884173367104</v>
+        <v>84.91884173367106</v>
       </c>
       <c r="R28" t="n">
-        <v>45.59858769023307</v>
+        <v>45.59858769023308</v>
       </c>
       <c r="S28" t="n">
         <v>17.67337092644092</v>
       </c>
       <c r="T28" t="n">
-        <v>4.333064337729386</v>
+        <v>4.333064337729387</v>
       </c>
       <c r="U28" t="n">
-        <v>0.05531571494973692</v>
+        <v>0.05531571494973694</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,25 +33174,25 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.2608097902405</v>
+        <v>2.260809790240501</v>
       </c>
       <c r="H29" t="n">
         <v>23.15351826430053</v>
       </c>
       <c r="I29" t="n">
-        <v>87.15986943824696</v>
+        <v>87.15986943824699</v>
       </c>
       <c r="J29" t="n">
         <v>191.8834049344248</v>
       </c>
       <c r="K29" t="n">
-        <v>287.5834833553052</v>
+        <v>287.5834833553053</v>
       </c>
       <c r="L29" t="n">
-        <v>356.772740973378</v>
+        <v>356.7727409733781</v>
       </c>
       <c r="M29" t="n">
-        <v>396.9784170805675</v>
+        <v>396.9784170805676</v>
       </c>
       <c r="N29" t="n">
         <v>403.4019428970884</v>
@@ -33201,19 +33201,19 @@
         <v>380.9210155453844</v>
       </c>
       <c r="P29" t="n">
-        <v>325.1072738488219</v>
+        <v>325.107273848822</v>
       </c>
       <c r="Q29" t="n">
         <v>244.142023235834</v>
       </c>
       <c r="R29" t="n">
-        <v>142.0155929861949</v>
+        <v>142.015592986195</v>
       </c>
       <c r="S29" t="n">
-        <v>51.51820309510545</v>
+        <v>51.51820309510546</v>
       </c>
       <c r="T29" t="n">
-        <v>9.896694856777794</v>
+        <v>9.896694856777795</v>
       </c>
       <c r="U29" t="n">
         <v>0.18086478321924</v>
@@ -33253,13 +33253,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.209639879749906</v>
+        <v>1.209639879749907</v>
       </c>
       <c r="H30" t="n">
         <v>11.68257462811094</v>
       </c>
       <c r="I30" t="n">
-        <v>41.64768884226651</v>
+        <v>41.64768884226653</v>
       </c>
       <c r="J30" t="n">
         <v>114.2844414460208</v>
@@ -33274,28 +33274,28 @@
         <v>306.495157250667</v>
       </c>
       <c r="N30" t="n">
-        <v>314.6071720582881</v>
+        <v>314.6071720582882</v>
       </c>
       <c r="O30" t="n">
         <v>287.8040989333034</v>
       </c>
       <c r="P30" t="n">
-        <v>230.9881626515413</v>
+        <v>230.9881626515414</v>
       </c>
       <c r="Q30" t="n">
-        <v>154.4094695624617</v>
+        <v>154.4094695624618</v>
       </c>
       <c r="R30" t="n">
-        <v>75.10378130587578</v>
+        <v>75.1037813058758</v>
       </c>
       <c r="S30" t="n">
         <v>22.46853022254759</v>
       </c>
       <c r="T30" t="n">
-        <v>4.875697585483173</v>
+        <v>4.875697585483174</v>
       </c>
       <c r="U30" t="n">
-        <v>0.07958157103617808</v>
+        <v>0.07958157103617809</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,13 +33335,13 @@
         <v>1.014121440745176</v>
       </c>
       <c r="H31" t="n">
-        <v>9.016461536807116</v>
+        <v>9.016461536807117</v>
       </c>
       <c r="I31" t="n">
-        <v>30.49739750895493</v>
+        <v>30.49739750895494</v>
       </c>
       <c r="J31" t="n">
-        <v>71.69838586068393</v>
+        <v>71.69838586068394</v>
       </c>
       <c r="K31" t="n">
         <v>117.8224728429395</v>
@@ -33362,19 +33362,19 @@
         <v>122.6533786152165</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.91884173367104</v>
+        <v>84.91884173367106</v>
       </c>
       <c r="R31" t="n">
-        <v>45.59858769023307</v>
+        <v>45.59858769023308</v>
       </c>
       <c r="S31" t="n">
         <v>17.67337092644092</v>
       </c>
       <c r="T31" t="n">
-        <v>4.333064337729386</v>
+        <v>4.333064337729387</v>
       </c>
       <c r="U31" t="n">
-        <v>0.05531571494973692</v>
+        <v>0.05531571494973694</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,25 +33411,25 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.2608097902405</v>
+        <v>2.260809790240501</v>
       </c>
       <c r="H32" t="n">
         <v>23.15351826430053</v>
       </c>
       <c r="I32" t="n">
-        <v>87.15986943824696</v>
+        <v>87.15986943824699</v>
       </c>
       <c r="J32" t="n">
         <v>191.8834049344248</v>
       </c>
       <c r="K32" t="n">
-        <v>287.5834833553052</v>
+        <v>287.5834833553053</v>
       </c>
       <c r="L32" t="n">
-        <v>356.772740973378</v>
+        <v>356.7727409733781</v>
       </c>
       <c r="M32" t="n">
-        <v>396.9784170805675</v>
+        <v>396.9784170805676</v>
       </c>
       <c r="N32" t="n">
         <v>403.4019428970884</v>
@@ -33438,19 +33438,19 @@
         <v>380.9210155453844</v>
       </c>
       <c r="P32" t="n">
-        <v>325.1072738488219</v>
+        <v>325.107273848822</v>
       </c>
       <c r="Q32" t="n">
         <v>244.142023235834</v>
       </c>
       <c r="R32" t="n">
-        <v>142.0155929861949</v>
+        <v>142.015592986195</v>
       </c>
       <c r="S32" t="n">
-        <v>51.51820309510545</v>
+        <v>51.51820309510546</v>
       </c>
       <c r="T32" t="n">
-        <v>9.896694856777794</v>
+        <v>9.896694856777795</v>
       </c>
       <c r="U32" t="n">
         <v>0.18086478321924</v>
@@ -33490,13 +33490,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.209639879749906</v>
+        <v>1.209639879749907</v>
       </c>
       <c r="H33" t="n">
         <v>11.68257462811094</v>
       </c>
       <c r="I33" t="n">
-        <v>41.64768884226651</v>
+        <v>41.64768884226653</v>
       </c>
       <c r="J33" t="n">
         <v>114.2844414460208</v>
@@ -33511,28 +33511,28 @@
         <v>306.495157250667</v>
       </c>
       <c r="N33" t="n">
-        <v>314.6071720582881</v>
+        <v>314.6071720582882</v>
       </c>
       <c r="O33" t="n">
         <v>287.8040989333034</v>
       </c>
       <c r="P33" t="n">
-        <v>230.9881626515413</v>
+        <v>230.9881626515414</v>
       </c>
       <c r="Q33" t="n">
-        <v>154.4094695624617</v>
+        <v>154.4094695624618</v>
       </c>
       <c r="R33" t="n">
-        <v>75.10378130587578</v>
+        <v>75.1037813058758</v>
       </c>
       <c r="S33" t="n">
         <v>22.46853022254759</v>
       </c>
       <c r="T33" t="n">
-        <v>4.875697585483173</v>
+        <v>4.875697585483174</v>
       </c>
       <c r="U33" t="n">
-        <v>0.07958157103617808</v>
+        <v>0.07958157103617809</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,13 +33572,13 @@
         <v>1.014121440745176</v>
       </c>
       <c r="H34" t="n">
-        <v>9.016461536807116</v>
+        <v>9.016461536807117</v>
       </c>
       <c r="I34" t="n">
-        <v>30.49739750895493</v>
+        <v>30.49739750895494</v>
       </c>
       <c r="J34" t="n">
-        <v>71.69838586068393</v>
+        <v>71.69838586068394</v>
       </c>
       <c r="K34" t="n">
         <v>117.8224728429395</v>
@@ -33599,19 +33599,19 @@
         <v>122.6533786152165</v>
       </c>
       <c r="Q34" t="n">
-        <v>84.91884173367104</v>
+        <v>84.91884173367106</v>
       </c>
       <c r="R34" t="n">
-        <v>45.59858769023307</v>
+        <v>45.59858769023308</v>
       </c>
       <c r="S34" t="n">
         <v>17.67337092644092</v>
       </c>
       <c r="T34" t="n">
-        <v>4.333064337729386</v>
+        <v>4.333064337729387</v>
       </c>
       <c r="U34" t="n">
-        <v>0.05531571494973692</v>
+        <v>0.05531571494973694</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,25 +33648,25 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.2608097902405</v>
+        <v>2.260809790240501</v>
       </c>
       <c r="H35" t="n">
         <v>23.15351826430053</v>
       </c>
       <c r="I35" t="n">
-        <v>87.15986943824696</v>
+        <v>87.15986943824699</v>
       </c>
       <c r="J35" t="n">
         <v>191.8834049344248</v>
       </c>
       <c r="K35" t="n">
-        <v>287.5834833553052</v>
+        <v>287.5834833553053</v>
       </c>
       <c r="L35" t="n">
-        <v>356.772740973378</v>
+        <v>356.7727409733781</v>
       </c>
       <c r="M35" t="n">
-        <v>396.9784170805675</v>
+        <v>396.9784170805676</v>
       </c>
       <c r="N35" t="n">
         <v>403.4019428970884</v>
@@ -33675,19 +33675,19 @@
         <v>380.9210155453844</v>
       </c>
       <c r="P35" t="n">
-        <v>325.1072738488219</v>
+        <v>325.107273848822</v>
       </c>
       <c r="Q35" t="n">
         <v>244.142023235834</v>
       </c>
       <c r="R35" t="n">
-        <v>142.0155929861949</v>
+        <v>142.015592986195</v>
       </c>
       <c r="S35" t="n">
-        <v>51.51820309510545</v>
+        <v>51.51820309510546</v>
       </c>
       <c r="T35" t="n">
-        <v>9.896694856777794</v>
+        <v>9.896694856777795</v>
       </c>
       <c r="U35" t="n">
         <v>0.18086478321924</v>
@@ -33727,13 +33727,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.209639879749906</v>
+        <v>1.209639879749907</v>
       </c>
       <c r="H36" t="n">
         <v>11.68257462811094</v>
       </c>
       <c r="I36" t="n">
-        <v>41.64768884226651</v>
+        <v>41.64768884226653</v>
       </c>
       <c r="J36" t="n">
         <v>114.2844414460208</v>
@@ -33748,28 +33748,28 @@
         <v>306.495157250667</v>
       </c>
       <c r="N36" t="n">
-        <v>314.6071720582881</v>
+        <v>314.6071720582882</v>
       </c>
       <c r="O36" t="n">
         <v>287.8040989333034</v>
       </c>
       <c r="P36" t="n">
-        <v>230.9881626515413</v>
+        <v>230.9881626515414</v>
       </c>
       <c r="Q36" t="n">
-        <v>154.4094695624617</v>
+        <v>154.4094695624618</v>
       </c>
       <c r="R36" t="n">
-        <v>75.10378130587578</v>
+        <v>75.1037813058758</v>
       </c>
       <c r="S36" t="n">
         <v>22.46853022254759</v>
       </c>
       <c r="T36" t="n">
-        <v>4.875697585483173</v>
+        <v>4.875697585483174</v>
       </c>
       <c r="U36" t="n">
-        <v>0.07958157103617808</v>
+        <v>0.07958157103617809</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,13 +33809,13 @@
         <v>1.014121440745176</v>
       </c>
       <c r="H37" t="n">
-        <v>9.016461536807116</v>
+        <v>9.016461536807117</v>
       </c>
       <c r="I37" t="n">
-        <v>30.49739750895493</v>
+        <v>30.49739750895494</v>
       </c>
       <c r="J37" t="n">
-        <v>71.69838586068393</v>
+        <v>71.69838586068394</v>
       </c>
       <c r="K37" t="n">
         <v>117.8224728429395</v>
@@ -33836,19 +33836,19 @@
         <v>122.6533786152165</v>
       </c>
       <c r="Q37" t="n">
-        <v>84.91884173367104</v>
+        <v>84.91884173367106</v>
       </c>
       <c r="R37" t="n">
-        <v>45.59858769023307</v>
+        <v>45.59858769023308</v>
       </c>
       <c r="S37" t="n">
         <v>17.67337092644092</v>
       </c>
       <c r="T37" t="n">
-        <v>4.333064337729386</v>
+        <v>4.333064337729387</v>
       </c>
       <c r="U37" t="n">
-        <v>0.05531571494973692</v>
+        <v>0.05531571494973694</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34786,19 +34786,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N3" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35023,16 +35023,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="N6" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N6" t="n">
-        <v>240.0046611659691</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
@@ -35269,7 +35269,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>113.3808631277494</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35494,19 +35494,19 @@
         <v>321.9541114274841</v>
       </c>
       <c r="L12" t="n">
-        <v>494.931677133318</v>
+        <v>422.3990357803967</v>
       </c>
       <c r="M12" t="n">
         <v>630.0661870786487</v>
       </c>
       <c r="N12" t="n">
-        <v>183.2654599749549</v>
+        <v>662.6078343185084</v>
       </c>
       <c r="O12" t="n">
-        <v>539.0701737655885</v>
+        <v>145.207854488859</v>
       </c>
       <c r="P12" t="n">
-        <v>109.9611689511138</v>
+        <v>97.01375523721114</v>
       </c>
       <c r="Q12" t="n">
         <v>224.5049832122893</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>68.33023601597665</v>
+        <v>68.33023601597669</v>
       </c>
       <c r="K13" t="n">
-        <v>185.5440112890221</v>
+        <v>185.5440112890222</v>
       </c>
       <c r="L13" t="n">
         <v>268.3532559136145</v>
       </c>
       <c r="M13" t="n">
-        <v>288.5430527135248</v>
+        <v>288.543052713525</v>
       </c>
       <c r="N13" t="n">
         <v>289.311440942681</v>
       </c>
       <c r="O13" t="n">
-        <v>257.9176141924233</v>
+        <v>257.9176141924234</v>
       </c>
       <c r="P13" t="n">
         <v>209.9229681520755</v>
       </c>
       <c r="Q13" t="n">
-        <v>88.74782875394216</v>
+        <v>88.7478287539422</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>113.5378501197629</v>
       </c>
       <c r="K15" t="n">
-        <v>301.7990467380849</v>
+        <v>57.48887441490552</v>
       </c>
       <c r="L15" t="n">
         <v>124.0913318298588</v>
@@ -35740,10 +35740,10 @@
         <v>662.6078343185084</v>
       </c>
       <c r="O15" t="n">
-        <v>145.207854488859</v>
+        <v>539.0701737655885</v>
       </c>
       <c r="P15" t="n">
-        <v>415.4765238771483</v>
+        <v>265.924376923598</v>
       </c>
       <c r="Q15" t="n">
         <v>224.5049832122893</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>68.33023601597662</v>
+        <v>68.33023601597669</v>
       </c>
       <c r="K16" t="n">
-        <v>185.5440112890221</v>
+        <v>185.5440112890222</v>
       </c>
       <c r="L16" t="n">
-        <v>268.3532559136144</v>
+        <v>268.3532559136145</v>
       </c>
       <c r="M16" t="n">
-        <v>288.5430527135248</v>
+        <v>288.543052713525</v>
       </c>
       <c r="N16" t="n">
         <v>289.311440942681</v>
       </c>
       <c r="O16" t="n">
-        <v>257.9176141924233</v>
+        <v>257.9176141924234</v>
       </c>
       <c r="P16" t="n">
-        <v>209.9229681520754</v>
+        <v>209.9229681520755</v>
       </c>
       <c r="Q16" t="n">
-        <v>88.74782875394213</v>
+        <v>88.7478287539422</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35895,7 +35895,7 @@
         <v>616.1457173461273</v>
       </c>
       <c r="N17" t="n">
-        <v>611.3358037124817</v>
+        <v>611.3358037124818</v>
       </c>
       <c r="O17" t="n">
         <v>531.622985386443</v>
@@ -35974,13 +35974,13 @@
         <v>630.0661870786487</v>
       </c>
       <c r="N18" t="n">
-        <v>662.6078343185084</v>
+        <v>248.5904503523797</v>
       </c>
       <c r="O18" t="n">
-        <v>145.207854488859</v>
+        <v>539.0701737655885</v>
       </c>
       <c r="P18" t="n">
-        <v>395.3214591877491</v>
+        <v>415.4765238771483</v>
       </c>
       <c r="Q18" t="n">
         <v>224.5049832122893</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>68.33023601597662</v>
+        <v>68.33023601597669</v>
       </c>
       <c r="K19" t="n">
-        <v>185.5440112890221</v>
+        <v>185.5440112890222</v>
       </c>
       <c r="L19" t="n">
-        <v>268.3532559136144</v>
+        <v>268.3532559136145</v>
       </c>
       <c r="M19" t="n">
-        <v>288.5430527135248</v>
+        <v>288.543052713525</v>
       </c>
       <c r="N19" t="n">
         <v>289.311440942681</v>
       </c>
       <c r="O19" t="n">
-        <v>257.9176141924235</v>
+        <v>257.9176141924234</v>
       </c>
       <c r="P19" t="n">
-        <v>209.9229681520754</v>
+        <v>209.9229681520755</v>
       </c>
       <c r="Q19" t="n">
-        <v>88.74782875394213</v>
+        <v>88.7478287539422</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36202,22 +36202,22 @@
         <v>113.5378501197629</v>
       </c>
       <c r="K21" t="n">
-        <v>57.48887441490552</v>
+        <v>321.9541114274841</v>
       </c>
       <c r="L21" t="n">
-        <v>124.0913318298588</v>
+        <v>494.931677133318</v>
       </c>
       <c r="M21" t="n">
-        <v>630.0661870786487</v>
+        <v>324.5508321526142</v>
       </c>
       <c r="N21" t="n">
-        <v>662.6078343185084</v>
+        <v>183.2654599749549</v>
       </c>
       <c r="O21" t="n">
         <v>539.0701737655885</v>
       </c>
       <c r="P21" t="n">
-        <v>265.924376923598</v>
+        <v>415.4765238771483</v>
       </c>
       <c r="Q21" t="n">
         <v>224.5049832122893</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>68.33023601597662</v>
+        <v>68.33023601597661</v>
       </c>
       <c r="K22" t="n">
         <v>185.5440112890221</v>
@@ -36299,7 +36299,7 @@
         <v>209.9229681520754</v>
       </c>
       <c r="Q22" t="n">
-        <v>88.74782875394213</v>
+        <v>88.74782875394256</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,7 +36360,7 @@
         <v>179.9341155798123</v>
       </c>
       <c r="K23" t="n">
-        <v>391.6390448814894</v>
+        <v>391.6390448814895</v>
       </c>
       <c r="L23" t="n">
         <v>538.6675405538413</v>
@@ -36369,13 +36369,13 @@
         <v>616.1457173461273</v>
       </c>
       <c r="N23" t="n">
-        <v>611.3358037124816</v>
+        <v>611.3358037124817</v>
       </c>
       <c r="O23" t="n">
         <v>531.622985386443</v>
       </c>
       <c r="P23" t="n">
-        <v>415.672986265035</v>
+        <v>415.6729862650351</v>
       </c>
       <c r="Q23" t="n">
         <v>234.1513240212892</v>
@@ -36445,16 +36445,16 @@
         <v>494.931677133318</v>
       </c>
       <c r="M24" t="n">
-        <v>324.5508321526145</v>
+        <v>324.5508321526142</v>
       </c>
       <c r="N24" t="n">
-        <v>183.2654599749548</v>
+        <v>183.2654599749549</v>
       </c>
       <c r="O24" t="n">
-        <v>539.0701737655884</v>
+        <v>539.0701737655885</v>
       </c>
       <c r="P24" t="n">
-        <v>415.4765238771482</v>
+        <v>415.4765238771483</v>
       </c>
       <c r="Q24" t="n">
         <v>224.5049832122893</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>68.33023601597661</v>
+        <v>68.33023601597664</v>
       </c>
       <c r="K25" t="n">
         <v>185.5440112890221</v>
@@ -36527,16 +36527,16 @@
         <v>288.5430527135248</v>
       </c>
       <c r="N25" t="n">
-        <v>289.3114409426809</v>
+        <v>289.311440942681</v>
       </c>
       <c r="O25" t="n">
-        <v>257.9176141924239</v>
+        <v>257.9176141924233</v>
       </c>
       <c r="P25" t="n">
-        <v>209.9229681520754</v>
+        <v>209.9229681520755</v>
       </c>
       <c r="Q25" t="n">
-        <v>88.74782875394212</v>
+        <v>88.74782875394214</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>179.9341155798123</v>
       </c>
       <c r="K26" t="n">
-        <v>391.6390448814894</v>
+        <v>391.6390448814895</v>
       </c>
       <c r="L26" t="n">
         <v>538.6675405538413</v>
@@ -36606,13 +36606,13 @@
         <v>616.1457173461273</v>
       </c>
       <c r="N26" t="n">
-        <v>611.3358037124816</v>
+        <v>611.3358037124817</v>
       </c>
       <c r="O26" t="n">
         <v>531.622985386443</v>
       </c>
       <c r="P26" t="n">
-        <v>415.672986265035</v>
+        <v>415.6729862650351</v>
       </c>
       <c r="Q26" t="n">
         <v>234.1513240212892</v>
@@ -36682,16 +36682,16 @@
         <v>494.931677133318</v>
       </c>
       <c r="M27" t="n">
-        <v>324.5508321526145</v>
+        <v>630.0661870786487</v>
       </c>
       <c r="N27" t="n">
-        <v>183.2654599749548</v>
+        <v>271.6124243256498</v>
       </c>
       <c r="O27" t="n">
-        <v>539.0701737655884</v>
+        <v>145.207854488859</v>
       </c>
       <c r="P27" t="n">
-        <v>415.4765238771482</v>
+        <v>415.4765238771483</v>
       </c>
       <c r="Q27" t="n">
         <v>224.5049832122893</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>68.33023601597665</v>
+        <v>68.33023601597669</v>
       </c>
       <c r="K28" t="n">
-        <v>185.5440112890221</v>
+        <v>185.5440112890222</v>
       </c>
       <c r="L28" t="n">
-        <v>268.3532559136144</v>
+        <v>268.3532559136145</v>
       </c>
       <c r="M28" t="n">
-        <v>288.5430527135248</v>
+        <v>288.543052713525</v>
       </c>
       <c r="N28" t="n">
         <v>289.311440942681</v>
       </c>
       <c r="O28" t="n">
-        <v>257.9176141924233</v>
+        <v>257.9176141924234</v>
       </c>
       <c r="P28" t="n">
         <v>209.9229681520755</v>
       </c>
       <c r="Q28" t="n">
-        <v>88.74782875394216</v>
+        <v>88.7478287539422</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>179.9341155798123</v>
       </c>
       <c r="K29" t="n">
-        <v>391.6390448814894</v>
+        <v>391.6390448814895</v>
       </c>
       <c r="L29" t="n">
         <v>538.6675405538413</v>
@@ -36843,13 +36843,13 @@
         <v>616.1457173461273</v>
       </c>
       <c r="N29" t="n">
-        <v>611.3358037124816</v>
+        <v>611.3358037124817</v>
       </c>
       <c r="O29" t="n">
         <v>531.622985386443</v>
       </c>
       <c r="P29" t="n">
-        <v>415.672986265035</v>
+        <v>415.6729862650351</v>
       </c>
       <c r="Q29" t="n">
         <v>234.1513240212892</v>
@@ -36919,16 +36919,16 @@
         <v>494.931677133318</v>
       </c>
       <c r="M30" t="n">
-        <v>324.5508321526145</v>
+        <v>630.0661870786487</v>
       </c>
       <c r="N30" t="n">
-        <v>183.2654599749548</v>
+        <v>271.6124243256498</v>
       </c>
       <c r="O30" t="n">
-        <v>539.0701737655884</v>
+        <v>145.207854488859</v>
       </c>
       <c r="P30" t="n">
-        <v>415.4765238771482</v>
+        <v>415.4765238771483</v>
       </c>
       <c r="Q30" t="n">
         <v>224.5049832122893</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>68.33023601597661</v>
+        <v>68.33023601597669</v>
       </c>
       <c r="K31" t="n">
-        <v>185.5440112890221</v>
+        <v>185.5440112890222</v>
       </c>
       <c r="L31" t="n">
-        <v>268.3532559136144</v>
+        <v>268.3532559136145</v>
       </c>
       <c r="M31" t="n">
-        <v>288.5430527135248</v>
+        <v>288.543052713525</v>
       </c>
       <c r="N31" t="n">
-        <v>289.3114409426809</v>
+        <v>289.311440942681</v>
       </c>
       <c r="O31" t="n">
-        <v>257.9176141924233</v>
+        <v>257.9176141924234</v>
       </c>
       <c r="P31" t="n">
-        <v>209.9229681520754</v>
+        <v>209.9229681520755</v>
       </c>
       <c r="Q31" t="n">
-        <v>88.74782875394212</v>
+        <v>88.7478287539422</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>179.9341155798123</v>
       </c>
       <c r="K32" t="n">
-        <v>391.6390448814894</v>
+        <v>391.6390448814895</v>
       </c>
       <c r="L32" t="n">
         <v>538.6675405538413</v>
@@ -37080,13 +37080,13 @@
         <v>616.1457173461273</v>
       </c>
       <c r="N32" t="n">
-        <v>611.3358037124816</v>
+        <v>611.3358037124817</v>
       </c>
       <c r="O32" t="n">
         <v>531.622985386443</v>
       </c>
       <c r="P32" t="n">
-        <v>415.672986265035</v>
+        <v>415.6729862650351</v>
       </c>
       <c r="Q32" t="n">
         <v>234.1513240212892</v>
@@ -37150,22 +37150,22 @@
         <v>113.5378501197629</v>
       </c>
       <c r="K33" t="n">
-        <v>321.9541114274841</v>
+        <v>226.3994961012927</v>
       </c>
       <c r="L33" t="n">
-        <v>494.931677133318</v>
+        <v>124.0913318298588</v>
       </c>
       <c r="M33" t="n">
-        <v>324.5508321526145</v>
+        <v>630.0661870786487</v>
       </c>
       <c r="N33" t="n">
-        <v>183.2654599749548</v>
+        <v>662.6078343185084</v>
       </c>
       <c r="O33" t="n">
-        <v>539.0701737655884</v>
+        <v>539.0701737655885</v>
       </c>
       <c r="P33" t="n">
-        <v>415.4765238771482</v>
+        <v>97.01375523721114</v>
       </c>
       <c r="Q33" t="n">
         <v>224.5049832122893</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>68.33023601597661</v>
+        <v>68.33023601597658</v>
       </c>
       <c r="K34" t="n">
         <v>185.5440112890221</v>
@@ -37247,7 +37247,7 @@
         <v>209.9229681520754</v>
       </c>
       <c r="Q34" t="n">
-        <v>88.74782875394278</v>
+        <v>88.74782875394209</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,22 +37308,22 @@
         <v>179.9341155798123</v>
       </c>
       <c r="K35" t="n">
-        <v>391.6390448814894</v>
+        <v>391.6390448814895</v>
       </c>
       <c r="L35" t="n">
         <v>538.6675405538413</v>
       </c>
       <c r="M35" t="n">
-        <v>616.1457173461274</v>
+        <v>616.1457173461273</v>
       </c>
       <c r="N35" t="n">
-        <v>611.3358037124816</v>
+        <v>611.3358037124817</v>
       </c>
       <c r="O35" t="n">
         <v>531.622985386443</v>
       </c>
       <c r="P35" t="n">
-        <v>415.672986265035</v>
+        <v>415.6729862650351</v>
       </c>
       <c r="Q35" t="n">
         <v>234.1513240212892</v>
@@ -37393,16 +37393,16 @@
         <v>494.931677133318</v>
       </c>
       <c r="M36" t="n">
-        <v>324.5508321526145</v>
+        <v>630.0661870786487</v>
       </c>
       <c r="N36" t="n">
-        <v>183.2654599749548</v>
+        <v>183.2654599749549</v>
       </c>
       <c r="O36" t="n">
-        <v>539.0701737655884</v>
+        <v>233.5548188395538</v>
       </c>
       <c r="P36" t="n">
-        <v>415.4765238771482</v>
+        <v>415.4765238771483</v>
       </c>
       <c r="Q36" t="n">
         <v>224.5049832122893</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>68.33023601597661</v>
+        <v>68.33023601597667</v>
       </c>
       <c r="K37" t="n">
-        <v>185.5440112890221</v>
+        <v>185.5440112890222</v>
       </c>
       <c r="L37" t="n">
-        <v>268.3532559136144</v>
+        <v>268.3532559136145</v>
       </c>
       <c r="M37" t="n">
         <v>288.5430527135248</v>
       </c>
       <c r="N37" t="n">
-        <v>289.3114409426809</v>
+        <v>289.311440942681</v>
       </c>
       <c r="O37" t="n">
-        <v>257.9176141924233</v>
+        <v>257.9176141924234</v>
       </c>
       <c r="P37" t="n">
-        <v>209.9229681520754</v>
+        <v>209.9229681520755</v>
       </c>
       <c r="Q37" t="n">
-        <v>88.74782875394212</v>
+        <v>88.74782875394141</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>538.6675405538413</v>
       </c>
       <c r="M38" t="n">
-        <v>616.1457173461272</v>
+        <v>616.1457173461273</v>
       </c>
       <c r="N38" t="n">
         <v>611.3358037124817</v>
@@ -37630,13 +37630,13 @@
         <v>494.931677133318</v>
       </c>
       <c r="M39" t="n">
-        <v>324.5508321526142</v>
+        <v>630.0661870786487</v>
       </c>
       <c r="N39" t="n">
-        <v>183.2654599749549</v>
+        <v>271.6124243256498</v>
       </c>
       <c r="O39" t="n">
-        <v>539.0701737655885</v>
+        <v>145.207854488859</v>
       </c>
       <c r="P39" t="n">
         <v>415.4765238771483</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>68.33023601597662</v>
+        <v>68.33023601597664</v>
       </c>
       <c r="K40" t="n">
         <v>185.5440112890221</v>
@@ -37718,10 +37718,10 @@
         <v>257.9176141924233</v>
       </c>
       <c r="P40" t="n">
-        <v>209.9229681520754</v>
+        <v>209.9229681520755</v>
       </c>
       <c r="Q40" t="n">
-        <v>88.74782875394213</v>
+        <v>88.74782875394214</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37864,13 +37864,13 @@
         <v>321.9541114274841</v>
       </c>
       <c r="L42" t="n">
-        <v>494.931677133318</v>
+        <v>124.0913318298588</v>
       </c>
       <c r="M42" t="n">
-        <v>324.5508321526142</v>
+        <v>216.04880311252</v>
       </c>
       <c r="N42" t="n">
-        <v>183.2654599749549</v>
+        <v>662.6078343185084</v>
       </c>
       <c r="O42" t="n">
         <v>539.0701737655885</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>24.93025611631176</v>
+        <v>24.93025611631194</v>
       </c>
       <c r="K43" t="n">
-        <v>142.1440313893573</v>
+        <v>142.1440313893575</v>
       </c>
       <c r="L43" t="n">
-        <v>224.9532760139496</v>
+        <v>224.9532760139497</v>
       </c>
       <c r="M43" t="n">
-        <v>245.14307281386</v>
+        <v>245.1430728138602</v>
       </c>
       <c r="N43" t="n">
-        <v>245.9114610430161</v>
+        <v>245.9114610430163</v>
       </c>
       <c r="O43" t="n">
-        <v>214.5176342927585</v>
+        <v>214.5176342927587</v>
       </c>
       <c r="P43" t="n">
-        <v>166.5229882524106</v>
+        <v>166.5229882524108</v>
       </c>
       <c r="Q43" t="n">
-        <v>45.34784885427727</v>
+        <v>45.34784885427744</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>179.9341155798122</v>
+        <v>179.9341155798123</v>
       </c>
       <c r="K44" t="n">
         <v>391.6390448814895</v>
@@ -38101,19 +38101,19 @@
         <v>321.9541114274841</v>
       </c>
       <c r="L45" t="n">
-        <v>422.3990357803967</v>
+        <v>494.931677133318</v>
       </c>
       <c r="M45" t="n">
         <v>630.0661870786487</v>
       </c>
       <c r="N45" t="n">
-        <v>662.6078343185084</v>
+        <v>183.2654599749549</v>
       </c>
       <c r="O45" t="n">
-        <v>145.207854488859</v>
+        <v>233.5548188395538</v>
       </c>
       <c r="P45" t="n">
-        <v>97.01375523721114</v>
+        <v>415.4765238771483</v>
       </c>
       <c r="Q45" t="n">
         <v>224.5049832122893</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>24.93025611631183</v>
+        <v>24.93025611631194</v>
       </c>
       <c r="K46" t="n">
-        <v>142.1440313893573</v>
+        <v>142.1440313893575</v>
       </c>
       <c r="L46" t="n">
-        <v>224.9532760139496</v>
+        <v>224.9532760139497</v>
       </c>
       <c r="M46" t="n">
-        <v>245.14307281386</v>
+        <v>245.1430728138602</v>
       </c>
       <c r="N46" t="n">
-        <v>245.9114610430161</v>
+        <v>245.9114610430163</v>
       </c>
       <c r="O46" t="n">
-        <v>214.5176342927585</v>
+        <v>214.5176342927587</v>
       </c>
       <c r="P46" t="n">
-        <v>166.5229882524107</v>
+        <v>166.5229882524108</v>
       </c>
       <c r="Q46" t="n">
-        <v>45.34784885427734</v>
+        <v>45.34784885427744</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
